--- a/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>BWTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,162 +665,172 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>5900</v>
       </c>
       <c r="P8" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E9" s="3">
         <v>4000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3600</v>
       </c>
       <c r="L9" s="3">
         <v>3600</v>
       </c>
       <c r="M9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N9" s="3">
         <v>4500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,43 +838,46 @@
         <v>3100</v>
       </c>
       <c r="E10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F10" s="3">
         <v>4200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3100</v>
       </c>
       <c r="G10" s="3">
         <v>3100</v>
       </c>
       <c r="H10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I10" s="3">
         <v>9700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2900</v>
       </c>
       <c r="K10" s="3">
         <v>2900</v>
       </c>
       <c r="L10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M10" s="3">
         <v>2800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,11 +1003,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -995,11 +1015,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,14 +1054,14 @@
         <v>300</v>
       </c>
       <c r="H15" s="3">
+        <v>300</v>
+      </c>
+      <c r="I15" s="3">
         <v>800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
-        <v>300</v>
-      </c>
       <c r="K15" s="3">
         <v>300</v>
       </c>
@@ -1046,19 +1069,22 @@
         <v>300</v>
       </c>
       <c r="M15" s="3">
+        <v>300</v>
+      </c>
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
-        <v>300</v>
-      </c>
       <c r="O15" s="3">
         <v>300</v>
       </c>
       <c r="P15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E17" s="3">
         <v>7000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>100</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,13 +1211,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1193,81 +1227,87 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>300</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1100</v>
       </c>
-      <c r="J21" s="3">
-        <v>300</v>
-      </c>
       <c r="K21" s="3">
+        <v>300</v>
+      </c>
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
-        <v>300</v>
-      </c>
       <c r="M21" s="3">
+        <v>300</v>
+      </c>
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1284,10 +1324,10 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1299,7 +1339,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>300</v>
+      </c>
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
-        <v>300</v>
-      </c>
       <c r="O23" s="3">
+        <v>300</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,43 +1409,46 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
-        <v>300</v>
-      </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>300</v>
+      </c>
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>300</v>
-      </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>300</v>
+      </c>
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,38 +1649,41 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>-200</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>200</v>
       </c>
       <c r="K29" s="3">
+        <v>200</v>
+      </c>
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>200</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,13 +1773,16 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1721,81 +1791,87 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>300</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>300</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E41" s="3">
         <v>4800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3600</v>
-      </c>
-      <c r="K41" s="3">
-        <v>4000</v>
       </c>
       <c r="L41" s="3">
         <v>4000</v>
       </c>
       <c r="M41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N41" s="3">
         <v>4300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2023,13 +2113,13 @@
         <v>1200</v>
       </c>
       <c r="F42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G42" s="3">
         <v>1000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>900</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1000</v>
       </c>
       <c r="I42" s="3">
         <v>1000</v>
@@ -2055,17 +2145,20 @@
       <c r="P42" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
@@ -2099,52 +2192,58 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E44" s="3">
         <v>4200</v>
       </c>
       <c r="F44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G44" s="3">
         <v>4400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2164,7 +2263,7 @@
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
@@ -2173,7 +2272,7 @@
         <v>400</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
@@ -2182,57 +2281,63 @@
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E46" s="3">
         <v>10500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2249,7 +2354,7 @@
         <v>800</v>
       </c>
       <c r="H47" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
@@ -2273,54 +2378,60 @@
         <v>300</v>
       </c>
       <c r="P47" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>14000</v>
       </c>
       <c r="F48" s="3">
         <v>14000</v>
       </c>
       <c r="G48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H48" s="3">
         <v>13000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2330,14 +2441,14 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -2349,11 +2460,11 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2462,14 +2582,14 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E54" s="3">
         <v>25100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1400</v>
       </c>
       <c r="F57" s="3">
         <v>1400</v>
       </c>
       <c r="G57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1200</v>
       </c>
       <c r="N57" s="3">
         <v>1200</v>
       </c>
       <c r="O57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,7 +2809,7 @@
         <v>500</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
@@ -2684,177 +2818,189 @@
         <v>400</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1000</v>
       </c>
       <c r="I59" s="3">
         <v>1000</v>
       </c>
       <c r="J59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E61" s="3">
         <v>7600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E62" s="3">
         <v>1700</v>
       </c>
       <c r="F62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G62" s="3">
         <v>1500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>600</v>
       </c>
       <c r="H62" s="3">
         <v>600</v>
@@ -2863,10 +3009,10 @@
         <v>600</v>
       </c>
       <c r="J62" s="3">
+        <v>600</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>800</v>
       </c>
       <c r="L62" s="3">
         <v>800</v>
@@ -2875,16 +3021,19 @@
         <v>800</v>
       </c>
       <c r="N62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O62" s="3">
         <v>700</v>
       </c>
       <c r="P62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E66" s="3">
         <v>11900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E72" s="3">
         <v>4200</v>
       </c>
       <c r="F72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G72" s="3">
         <v>3800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>3700</v>
       </c>
       <c r="H72" s="3">
         <v>3700</v>
       </c>
       <c r="I72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J72" s="3">
         <v>3800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>3300</v>
       </c>
       <c r="M72" s="3">
         <v>3300</v>
       </c>
       <c r="N72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O72" s="3">
         <v>3000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,19 +3612,22 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="E76" s="3">
         <v>13200</v>
       </c>
       <c r="F76" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="G76" s="3">
         <v>12800</v>
@@ -3450,31 +3636,34 @@
         <v>12800</v>
       </c>
       <c r="I76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J76" s="3">
         <v>12900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>12400</v>
       </c>
       <c r="M76" s="3">
         <v>12400</v>
       </c>
       <c r="N76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="O76" s="3">
         <v>12100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>300</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3646,14 +3845,14 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
-        <v>300</v>
-      </c>
       <c r="K83" s="3">
         <v>300</v>
       </c>
@@ -3661,19 +3860,22 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
+        <v>300</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
-        <v>300</v>
-      </c>
       <c r="O83" s="3">
         <v>300</v>
       </c>
       <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>800</v>
       </c>
       <c r="I89" s="3">
         <v>800</v>
       </c>
       <c r="J89" s="3">
+        <v>800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-400</v>
       </c>
       <c r="M94" s="3">
         <v>-400</v>
       </c>
       <c r="N94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,37 +4567,40 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
-        <v>300</v>
-      </c>
       <c r="H102" s="3">
+        <v>300</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>BWTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E8" s="3">
         <v>7000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>5900</v>
       </c>
       <c r="Q8" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E9" s="3">
         <v>3900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>3600</v>
       </c>
       <c r="M9" s="3">
         <v>3600</v>
       </c>
       <c r="N9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O9" s="3">
         <v>4500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="E10" s="3">
         <v>3100</v>
       </c>
       <c r="F10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G10" s="3">
         <v>4200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3100</v>
       </c>
       <c r="H10" s="3">
         <v>3100</v>
       </c>
       <c r="I10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J10" s="3">
         <v>9700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6700</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2900</v>
       </c>
       <c r="L10" s="3">
         <v>2900</v>
       </c>
       <c r="M10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N10" s="3">
         <v>2800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,40 +1005,43 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1030,14 +1049,17 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,14 +1079,14 @@
         <v>300</v>
       </c>
       <c r="I15" s="3">
+        <v>300</v>
+      </c>
+      <c r="J15" s="3">
         <v>800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="K15" s="3">
-        <v>300</v>
-      </c>
       <c r="L15" s="3">
         <v>300</v>
       </c>
@@ -1072,19 +1094,22 @@
         <v>300</v>
       </c>
       <c r="N15" s="3">
+        <v>300</v>
+      </c>
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3">
-        <v>300</v>
-      </c>
       <c r="P15" s="3">
         <v>300</v>
       </c>
       <c r="Q15" s="3">
+        <v>300</v>
+      </c>
+      <c r="R15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E17" s="3">
         <v>7100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>100</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,17 +1244,18 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1230,84 +1263,90 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>300</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1100</v>
       </c>
-      <c r="K21" s="3">
-        <v>300</v>
-      </c>
       <c r="L21" s="3">
+        <v>300</v>
+      </c>
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
-        <v>300</v>
-      </c>
       <c r="N21" s="3">
+        <v>300</v>
+      </c>
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1327,10 +1366,10 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1342,7 +1381,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1353,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>300</v>
+      </c>
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
-        <v>300</v>
-      </c>
       <c r="P23" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>300</v>
-      </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>300</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>300</v>
-      </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>300</v>
+      </c>
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1652,38 +1712,41 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K29" s="3">
         <v>200</v>
       </c>
       <c r="L29" s="3">
+        <v>200</v>
+      </c>
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>200</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,17 +1842,20 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1794,84 +1863,90 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>300</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>300</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E41" s="3">
         <v>4700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3600</v>
-      </c>
-      <c r="L41" s="3">
-        <v>4000</v>
       </c>
       <c r="M41" s="3">
         <v>4000</v>
       </c>
       <c r="N41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O41" s="3">
         <v>4300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2116,13 +2205,13 @@
         <v>1200</v>
       </c>
       <c r="G42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H42" s="3">
         <v>1000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>900</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1000</v>
       </c>
       <c r="J42" s="3">
         <v>1000</v>
@@ -2148,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2157,11 +2249,11 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
@@ -2195,55 +2287,61 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E44" s="3">
         <v>4000</v>
-      </c>
-      <c r="E44" s="3">
-        <v>4200</v>
       </c>
       <c r="F44" s="3">
         <v>4200</v>
       </c>
       <c r="G44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H44" s="3">
         <v>4400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2266,7 +2364,7 @@
         <v>300</v>
       </c>
       <c r="J45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>400</v>
@@ -2275,7 +2373,7 @@
         <v>400</v>
       </c>
       <c r="M45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
@@ -2284,13 +2382,16 @@
         <v>300</v>
       </c>
       <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2298,46 +2399,49 @@
         <v>10300</v>
       </c>
       <c r="E46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F46" s="3">
         <v>10500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2357,7 +2461,7 @@
         <v>800</v>
       </c>
       <c r="I47" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="J47" s="3">
         <v>300</v>
@@ -2381,57 +2485,63 @@
         <v>300</v>
       </c>
       <c r="Q47" s="3">
+        <v>300</v>
+      </c>
+      <c r="R47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E48" s="3">
         <v>14000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>14000</v>
       </c>
       <c r="G48" s="3">
         <v>14000</v>
       </c>
       <c r="H48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I48" s="3">
         <v>13000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2444,14 +2554,14 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2463,11 +2573,11 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2585,14 +2704,14 @@
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2674,46 +2799,49 @@
         <v>25200</v>
       </c>
       <c r="E54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F54" s="3">
         <v>25100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1400</v>
       </c>
       <c r="G57" s="3">
         <v>1400</v>
       </c>
       <c r="H57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1200</v>
       </c>
       <c r="O57" s="3">
         <v>1200</v>
       </c>
       <c r="P57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2812,7 +2945,7 @@
         <v>500</v>
       </c>
       <c r="G58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
@@ -2821,189 +2954,201 @@
         <v>400</v>
       </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
       </c>
       <c r="P58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1000</v>
       </c>
       <c r="J59" s="3">
         <v>1000</v>
       </c>
       <c r="K59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E61" s="3">
         <v>7500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1700</v>
       </c>
       <c r="F62" s="3">
         <v>1700</v>
       </c>
       <c r="G62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H62" s="3">
         <v>1500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>600</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
@@ -3012,10 +3157,10 @@
         <v>600</v>
       </c>
       <c r="K62" s="3">
+        <v>600</v>
+      </c>
+      <c r="L62" s="3">
         <v>500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>800</v>
       </c>
       <c r="M62" s="3">
         <v>800</v>
@@ -3024,16 +3169,19 @@
         <v>800</v>
       </c>
       <c r="O62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P62" s="3">
         <v>700</v>
       </c>
       <c r="Q62" s="3">
+        <v>700</v>
+      </c>
+      <c r="R62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E66" s="3">
         <v>12100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E72" s="3">
         <v>4100</v>
-      </c>
-      <c r="E72" s="3">
-        <v>4200</v>
       </c>
       <c r="F72" s="3">
         <v>4200</v>
       </c>
       <c r="G72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H72" s="3">
         <v>3800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>3700</v>
       </c>
       <c r="I72" s="3">
         <v>3700</v>
       </c>
       <c r="J72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K72" s="3">
         <v>3800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>3300</v>
       </c>
       <c r="N72" s="3">
         <v>3300</v>
       </c>
       <c r="O72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P72" s="3">
         <v>3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,22 +3797,25 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E76" s="3">
         <v>13000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>13200</v>
       </c>
       <c r="F76" s="3">
         <v>13200</v>
       </c>
       <c r="G76" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="H76" s="3">
         <v>12800</v>
@@ -3639,31 +3824,34 @@
         <v>12800</v>
       </c>
       <c r="J76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K76" s="3">
         <v>12900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>12400</v>
       </c>
       <c r="N76" s="3">
         <v>12400</v>
       </c>
       <c r="O76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="P76" s="3">
         <v>12100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>300</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3848,14 +4046,14 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
+        <v>300</v>
+      </c>
+      <c r="J83" s="3">
         <v>800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
-        <v>300</v>
-      </c>
       <c r="L83" s="3">
         <v>300</v>
       </c>
@@ -3863,19 +4061,22 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
+        <v>300</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
-        <v>300</v>
-      </c>
       <c r="P83" s="3">
         <v>300</v>
       </c>
       <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>800</v>
       </c>
       <c r="J89" s="3">
         <v>800</v>
       </c>
       <c r="K89" s="3">
+        <v>800</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-400</v>
       </c>
       <c r="N94" s="3">
         <v>-400</v>
       </c>
       <c r="O94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,40 +4812,43 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-100</v>
       </c>
       <c r="N100" s="3">
         <v>-100</v>
@@ -4617,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
-        <v>300</v>
-      </c>
       <c r="I102" s="3">
+        <v>300</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>BWTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E8" s="3">
         <v>5300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>5900</v>
       </c>
       <c r="R8" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E9" s="3">
         <v>2800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>3600</v>
       </c>
       <c r="N9" s="3">
         <v>3600</v>
       </c>
       <c r="O9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P9" s="3">
         <v>4500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3100</v>
       </c>
       <c r="F10" s="3">
         <v>3100</v>
       </c>
       <c r="G10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H10" s="3">
         <v>4200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3100</v>
       </c>
       <c r="I10" s="3">
         <v>3100</v>
       </c>
       <c r="J10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K10" s="3">
         <v>9700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6700</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2900</v>
       </c>
       <c r="M10" s="3">
         <v>2900</v>
       </c>
       <c r="N10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O10" s="3">
         <v>2800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,17 +1054,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1052,14 +1072,17 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,14 +1105,14 @@
         <v>300</v>
       </c>
       <c r="J15" s="3">
+        <v>300</v>
+      </c>
+      <c r="K15" s="3">
         <v>800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3">
-        <v>300</v>
-      </c>
       <c r="M15" s="3">
         <v>300</v>
       </c>
@@ -1097,19 +1120,22 @@
         <v>300</v>
       </c>
       <c r="O15" s="3">
+        <v>300</v>
+      </c>
+      <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="P15" s="3">
-        <v>300</v>
-      </c>
       <c r="Q15" s="3">
         <v>300</v>
       </c>
       <c r="R15" s="3">
+        <v>300</v>
+      </c>
+      <c r="S15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E17" s="3">
         <v>5500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>100</v>
       </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,11 +1288,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1266,87 +1300,93 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>300</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
-        <v>300</v>
-      </c>
       <c r="F21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1100</v>
       </c>
-      <c r="L21" s="3">
-        <v>300</v>
-      </c>
       <c r="M21" s="3">
+        <v>300</v>
+      </c>
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
-        <v>300</v>
-      </c>
       <c r="O21" s="3">
+        <v>300</v>
+      </c>
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1369,10 +1409,10 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1384,7 +1424,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>300</v>
+      </c>
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
-        <v>300</v>
-      </c>
       <c r="Q23" s="3">
+        <v>300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
-        <v>300</v>
-      </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>300</v>
-      </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,38 +1776,41 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>200</v>
       </c>
       <c r="M29" s="3">
+        <v>200</v>
+      </c>
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>200</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,11 +1924,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1866,87 +1936,93 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
         <v>4400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3600</v>
-      </c>
-      <c r="M41" s="3">
-        <v>4000</v>
       </c>
       <c r="N41" s="3">
         <v>4000</v>
       </c>
       <c r="O41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P41" s="3">
         <v>4300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2208,13 +2298,13 @@
         <v>1200</v>
       </c>
       <c r="H42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I42" s="3">
         <v>1000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>900</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1000</v>
       </c>
       <c r="K42" s="3">
         <v>1000</v>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2252,11 +2345,11 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2290,63 +2383,69 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E44" s="3">
         <v>4400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>4200</v>
       </c>
       <c r="G44" s="3">
         <v>4200</v>
       </c>
       <c r="H44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I44" s="3">
         <v>4400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -2367,7 +2466,7 @@
         <v>300</v>
       </c>
       <c r="K45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>400</v>
@@ -2376,7 +2475,7 @@
         <v>400</v>
       </c>
       <c r="N45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
@@ -2385,63 +2484,69 @@
         <v>300</v>
       </c>
       <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10300</v>
+        <v>12000</v>
       </c>
       <c r="E46" s="3">
         <v>10300</v>
       </c>
       <c r="F46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="G46" s="3">
         <v>10500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2464,7 +2569,7 @@
         <v>800</v>
       </c>
       <c r="J47" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K47" s="3">
         <v>300</v>
@@ -2488,60 +2593,66 @@
         <v>300</v>
       </c>
       <c r="R47" s="3">
+        <v>300</v>
+      </c>
+      <c r="S47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E48" s="3">
         <v>14100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>14000</v>
       </c>
       <c r="H48" s="3">
         <v>14000</v>
       </c>
       <c r="I48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J48" s="3">
         <v>13000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2557,14 +2668,14 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2576,11 +2687,11 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2707,14 +2827,14 @@
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>500</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25200</v>
+        <v>26700</v>
       </c>
       <c r="E54" s="3">
         <v>25200</v>
       </c>
       <c r="F54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="G54" s="3">
         <v>25100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,49 +3020,52 @@
         <v>1000</v>
       </c>
       <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1400</v>
       </c>
       <c r="H57" s="3">
         <v>1400</v>
       </c>
       <c r="I57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1200</v>
       </c>
       <c r="P57" s="3">
         <v>1200</v>
       </c>
       <c r="Q57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2948,7 +3082,7 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
@@ -2957,201 +3091,213 @@
         <v>400</v>
       </c>
       <c r="K58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
       </c>
       <c r="Q58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1000</v>
       </c>
       <c r="K59" s="3">
         <v>1000</v>
       </c>
       <c r="L59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E61" s="3">
         <v>8500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1700</v>
       </c>
       <c r="G62" s="3">
         <v>1700</v>
       </c>
       <c r="H62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I62" s="3">
         <v>1500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>600</v>
       </c>
       <c r="J62" s="3">
         <v>600</v>
@@ -3160,10 +3306,10 @@
         <v>600</v>
       </c>
       <c r="L62" s="3">
+        <v>600</v>
+      </c>
+      <c r="M62" s="3">
         <v>500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>800</v>
       </c>
       <c r="N62" s="3">
         <v>800</v>
@@ -3172,16 +3318,19 @@
         <v>800</v>
       </c>
       <c r="P62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q62" s="3">
         <v>700</v>
       </c>
       <c r="R62" s="3">
+        <v>700</v>
+      </c>
+      <c r="S62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E66" s="3">
         <v>12400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E72" s="3">
         <v>3800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4200</v>
       </c>
       <c r="G72" s="3">
         <v>4200</v>
       </c>
       <c r="H72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I72" s="3">
         <v>3800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>3700</v>
       </c>
       <c r="J72" s="3">
         <v>3700</v>
       </c>
       <c r="K72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L72" s="3">
         <v>3800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>3300</v>
       </c>
       <c r="O72" s="3">
         <v>3300</v>
       </c>
       <c r="P72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q72" s="3">
         <v>3000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,25 +3983,28 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E76" s="3">
         <v>12800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>13200</v>
       </c>
       <c r="G76" s="3">
         <v>13200</v>
       </c>
       <c r="H76" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="I76" s="3">
         <v>12800</v>
@@ -3827,31 +4013,34 @@
         <v>12800</v>
       </c>
       <c r="K76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="L76" s="3">
         <v>12900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>12400</v>
       </c>
       <c r="O76" s="3">
         <v>12400</v>
       </c>
       <c r="P76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>12100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4049,14 +4248,14 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
         <v>800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
-        <v>300</v>
-      </c>
       <c r="M83" s="3">
         <v>300</v>
       </c>
@@ -4064,19 +4263,22 @@
         <v>300</v>
       </c>
       <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
-        <v>300</v>
-      </c>
       <c r="Q83" s="3">
         <v>300</v>
       </c>
       <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>800</v>
       </c>
       <c r="K89" s="3">
         <v>800</v>
       </c>
       <c r="L89" s="3">
+        <v>800</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-400</v>
       </c>
       <c r="O94" s="3">
         <v>-400</v>
       </c>
       <c r="P94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,43 +5058,46 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-100</v>
       </c>
       <c r="O100" s="3">
         <v>-100</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
-        <v>300</v>
-      </c>
       <c r="J102" s="3">
+        <v>300</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>BWTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E8" s="3">
         <v>8900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>5900</v>
       </c>
       <c r="S8" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E9" s="3">
         <v>4100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>3600</v>
       </c>
       <c r="O9" s="3">
         <v>3600</v>
       </c>
       <c r="P9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q9" s="3">
         <v>4500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E10" s="3">
         <v>4800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3100</v>
       </c>
       <c r="G10" s="3">
         <v>3100</v>
       </c>
       <c r="H10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I10" s="3">
         <v>4200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3100</v>
       </c>
       <c r="J10" s="3">
         <v>3100</v>
       </c>
       <c r="K10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L10" s="3">
         <v>9700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6700</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2900</v>
       </c>
       <c r="N10" s="3">
         <v>2900</v>
       </c>
       <c r="O10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P10" s="3">
         <v>2800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,17 +1077,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,14 +1131,14 @@
         <v>300</v>
       </c>
       <c r="K15" s="3">
+        <v>300</v>
+      </c>
+      <c r="L15" s="3">
         <v>800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>500</v>
       </c>
-      <c r="M15" s="3">
-        <v>300</v>
-      </c>
       <c r="N15" s="3">
         <v>300</v>
       </c>
@@ -1123,19 +1146,22 @@
         <v>300</v>
       </c>
       <c r="P15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>200</v>
       </c>
-      <c r="Q15" s="3">
-        <v>300</v>
-      </c>
       <c r="R15" s="3">
         <v>300</v>
       </c>
       <c r="S15" s="3">
+        <v>300</v>
+      </c>
+      <c r="T15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E17" s="3">
         <v>7800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>100</v>
       </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,11 +1325,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1303,90 +1337,96 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>300</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
-        <v>300</v>
-      </c>
       <c r="G21" s="3">
+        <v>300</v>
+      </c>
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1100</v>
       </c>
-      <c r="M21" s="3">
-        <v>300</v>
-      </c>
       <c r="N21" s="3">
+        <v>300</v>
+      </c>
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
-        <v>300</v>
-      </c>
       <c r="P21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1412,10 +1452,10 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1427,7 +1467,7 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>300</v>
+      </c>
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
-        <v>300</v>
-      </c>
       <c r="R23" s="3">
+        <v>300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
-        <v>300</v>
-      </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>300</v>
+      </c>
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>300</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>300</v>
+      </c>
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,38 +1840,41 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M29" s="3">
         <v>200</v>
       </c>
       <c r="N29" s="3">
+        <v>200</v>
+      </c>
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>200</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,11 +1997,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1939,90 +2009,96 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>300</v>
+      </c>
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>300</v>
+      </c>
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E41" s="3">
         <v>6600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3600</v>
-      </c>
-      <c r="N41" s="3">
-        <v>4000</v>
       </c>
       <c r="O41" s="3">
         <v>4000</v>
       </c>
       <c r="P41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q41" s="3">
         <v>4300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2301,13 +2391,13 @@
         <v>1200</v>
       </c>
       <c r="I42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J42" s="3">
         <v>1000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>900</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1000</v>
       </c>
       <c r="L42" s="3">
         <v>1000</v>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2348,11 +2441,11 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -2386,61 +2479,67 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>4200</v>
       </c>
       <c r="H44" s="3">
         <v>4200</v>
       </c>
       <c r="I44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J44" s="3">
         <v>4400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,7 +2547,7 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
@@ -2469,7 +2568,7 @@
         <v>300</v>
       </c>
       <c r="L45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>400</v>
@@ -2478,7 +2577,7 @@
         <v>400</v>
       </c>
       <c r="O45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
@@ -2487,66 +2586,72 @@
         <v>300</v>
       </c>
       <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E46" s="3">
         <v>12000</v>
-      </c>
-      <c r="E46" s="3">
-        <v>10300</v>
       </c>
       <c r="F46" s="3">
         <v>10300</v>
       </c>
       <c r="G46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H46" s="3">
         <v>10500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2572,7 +2677,7 @@
         <v>800</v>
       </c>
       <c r="K47" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L47" s="3">
         <v>300</v>
@@ -2596,10 +2701,13 @@
         <v>300</v>
       </c>
       <c r="S47" s="3">
+        <v>300</v>
+      </c>
+      <c r="T47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,52 +2715,55 @@
         <v>13800</v>
       </c>
       <c r="E48" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F48" s="3">
         <v>14100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>14000</v>
       </c>
       <c r="I48" s="3">
         <v>14000</v>
       </c>
       <c r="J48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K48" s="3">
         <v>13000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2671,14 +2782,14 @@
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2690,11 +2801,11 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>100</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2830,14 +2950,14 @@
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>500</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E54" s="3">
         <v>26700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>25200</v>
       </c>
       <c r="F54" s="3">
         <v>25200</v>
       </c>
       <c r="G54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="H54" s="3">
         <v>25100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
         <v>1000</v>
       </c>
       <c r="F57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1400</v>
       </c>
       <c r="I57" s="3">
         <v>1400</v>
       </c>
       <c r="J57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1200</v>
       </c>
       <c r="Q57" s="3">
         <v>1200</v>
       </c>
       <c r="R57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3085,7 +3219,7 @@
         <v>500</v>
       </c>
       <c r="I58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>400</v>
@@ -3094,190 +3228,202 @@
         <v>400</v>
       </c>
       <c r="L58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
       <c r="P58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>400</v>
       </c>
       <c r="R58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1000</v>
       </c>
       <c r="L59" s="3">
         <v>1000</v>
       </c>
       <c r="M59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E61" s="3">
         <v>8300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,22 +3431,22 @@
         <v>2000</v>
       </c>
       <c r="E62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1700</v>
       </c>
       <c r="H62" s="3">
         <v>1700</v>
       </c>
       <c r="I62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J62" s="3">
         <v>1500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>600</v>
       </c>
       <c r="K62" s="3">
         <v>600</v>
@@ -3309,10 +3455,10 @@
         <v>600</v>
       </c>
       <c r="M62" s="3">
+        <v>600</v>
+      </c>
+      <c r="N62" s="3">
         <v>500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>800</v>
       </c>
       <c r="O62" s="3">
         <v>800</v>
@@ -3321,16 +3467,19 @@
         <v>800</v>
       </c>
       <c r="Q62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R62" s="3">
         <v>700</v>
       </c>
       <c r="S62" s="3">
+        <v>700</v>
+      </c>
+      <c r="T62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E66" s="3">
         <v>13200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E72" s="3">
         <v>4500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>4200</v>
       </c>
       <c r="H72" s="3">
         <v>4200</v>
       </c>
       <c r="I72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J72" s="3">
         <v>3800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>3700</v>
       </c>
       <c r="K72" s="3">
         <v>3700</v>
       </c>
       <c r="L72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M72" s="3">
         <v>3800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>3300</v>
       </c>
       <c r="P72" s="3">
         <v>3300</v>
       </c>
       <c r="Q72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R72" s="3">
         <v>3000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,28 +4169,31 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E76" s="3">
         <v>13500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>13200</v>
       </c>
       <c r="H76" s="3">
         <v>13200</v>
       </c>
       <c r="I76" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="J76" s="3">
         <v>12800</v>
@@ -4016,31 +4202,34 @@
         <v>12800</v>
       </c>
       <c r="L76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="M76" s="3">
         <v>12900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>12400</v>
       </c>
       <c r="P76" s="3">
         <v>12400</v>
       </c>
       <c r="Q76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="R76" s="3">
         <v>12100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>300</v>
+      </c>
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4251,14 +4450,14 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
         <v>800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3">
-        <v>300</v>
-      </c>
       <c r="N83" s="3">
         <v>300</v>
       </c>
@@ -4266,19 +4465,22 @@
         <v>300</v>
       </c>
       <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
-        <v>300</v>
-      </c>
       <c r="R83" s="3">
         <v>300</v>
       </c>
       <c r="S83" s="3">
+        <v>300</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>800</v>
       </c>
       <c r="L89" s="3">
         <v>800</v>
       </c>
       <c r="M89" s="3">
+        <v>800</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
-        <v>700</v>
-      </c>
       <c r="G94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-400</v>
       </c>
       <c r="P94" s="3">
         <v>-400</v>
       </c>
       <c r="Q94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,37 +5316,37 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-100</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
         <v>2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
-        <v>300</v>
-      </c>
       <c r="K102" s="3">
+        <v>300</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>BWTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,55 +759,58 @@
         <v>7600</v>
       </c>
       <c r="E8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F8" s="3">
         <v>8900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6300</v>
-      </c>
-      <c r="S8" s="3">
-        <v>5900</v>
       </c>
       <c r="T8" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,55 +818,58 @@
         <v>3800</v>
       </c>
       <c r="E9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F9" s="3">
         <v>4100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>3600</v>
       </c>
       <c r="P9" s="3">
         <v>3600</v>
       </c>
       <c r="Q9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R9" s="3">
         <v>4500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,55 +877,58 @@
         <v>3800</v>
       </c>
       <c r="E10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F10" s="3">
         <v>4800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3100</v>
       </c>
       <c r="H10" s="3">
         <v>3100</v>
       </c>
       <c r="I10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J10" s="3">
         <v>4200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3100</v>
       </c>
       <c r="K10" s="3">
         <v>3100</v>
       </c>
       <c r="L10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M10" s="3">
         <v>9700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6700</v>
-      </c>
-      <c r="N10" s="3">
-        <v>2900</v>
       </c>
       <c r="O10" s="3">
         <v>2900</v>
       </c>
       <c r="P10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1065,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1080,17 +1100,17 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1098,14 +1118,17 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,14 +1157,14 @@
         <v>300</v>
       </c>
       <c r="L15" s="3">
+        <v>300</v>
+      </c>
+      <c r="M15" s="3">
         <v>800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>500</v>
       </c>
-      <c r="N15" s="3">
-        <v>300</v>
-      </c>
       <c r="O15" s="3">
         <v>300</v>
       </c>
@@ -1149,19 +1172,22 @@
         <v>300</v>
       </c>
       <c r="Q15" s="3">
+        <v>300</v>
+      </c>
+      <c r="R15" s="3">
         <v>200</v>
       </c>
-      <c r="R15" s="3">
-        <v>300</v>
-      </c>
       <c r="S15" s="3">
         <v>300</v>
       </c>
       <c r="T15" s="3">
+        <v>300</v>
+      </c>
+      <c r="U15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E17" s="3">
         <v>7200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>100</v>
       </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1346,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1328,11 +1362,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1340,93 +1374,99 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
-        <v>300</v>
-      </c>
       <c r="H21" s="3">
+        <v>300</v>
+      </c>
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1100</v>
       </c>
-      <c r="N21" s="3">
-        <v>300</v>
-      </c>
       <c r="O21" s="3">
+        <v>300</v>
+      </c>
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
-        <v>300</v>
-      </c>
       <c r="Q21" s="3">
+        <v>300</v>
+      </c>
+      <c r="R21" s="3">
         <v>800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="T21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1455,10 +1495,10 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1470,7 +1510,7 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>300</v>
+      </c>
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
-        <v>300</v>
-      </c>
       <c r="S23" s="3">
+        <v>300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
-        <v>300</v>
-      </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>300</v>
+      </c>
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
-        <v>300</v>
-      </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>300</v>
+      </c>
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,38 +1904,41 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N29" s="3">
         <v>200</v>
       </c>
       <c r="O29" s="3">
+        <v>200</v>
+      </c>
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>200</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2052,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2000,11 +2070,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2012,93 +2082,99 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>300</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>300</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E41" s="3">
         <v>7300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3600</v>
-      </c>
-      <c r="O41" s="3">
-        <v>4000</v>
       </c>
       <c r="P41" s="3">
         <v>4000</v>
       </c>
       <c r="Q41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R41" s="3">
         <v>4300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2394,13 +2484,13 @@
         <v>1200</v>
       </c>
       <c r="J42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>900</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1000</v>
       </c>
       <c r="M42" s="3">
         <v>1000</v>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2444,11 +2537,11 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -2482,75 +2575,81 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E44" s="3">
         <v>4000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>4200</v>
       </c>
       <c r="I44" s="3">
         <v>4200</v>
       </c>
       <c r="J44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K44" s="3">
         <v>4400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
@@ -2571,7 +2670,7 @@
         <v>300</v>
       </c>
       <c r="M45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>400</v>
@@ -2580,7 +2679,7 @@
         <v>400</v>
       </c>
       <c r="P45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
@@ -2589,83 +2688,89 @@
         <v>300</v>
       </c>
       <c r="S45" s="3">
+        <v>300</v>
+      </c>
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>10300</v>
       </c>
       <c r="G46" s="3">
         <v>10300</v>
       </c>
       <c r="H46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I46" s="3">
         <v>10500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>800</v>
@@ -2680,7 +2785,7 @@
         <v>800</v>
       </c>
       <c r="L47" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M47" s="3">
         <v>300</v>
@@ -2704,66 +2809,72 @@
         <v>300</v>
       </c>
       <c r="T47" s="3">
+        <v>300</v>
+      </c>
+      <c r="U47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13800</v>
+        <v>14500</v>
       </c>
       <c r="E48" s="3">
-        <v>13800</v>
+        <v>14600</v>
       </c>
       <c r="F48" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="G48" s="3">
+        <v>14900</v>
+      </c>
+      <c r="H48" s="3">
         <v>14000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>14000</v>
       </c>
       <c r="J48" s="3">
         <v>14000</v>
       </c>
       <c r="K48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L48" s="3">
         <v>13000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2785,14 +2896,14 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2804,11 +2915,11 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
         <v>100</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2953,14 +3073,14 @@
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>500</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E54" s="3">
         <v>27400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>25200</v>
       </c>
       <c r="G54" s="3">
         <v>25200</v>
       </c>
       <c r="H54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="I54" s="3">
         <v>25100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,69 +3272,73 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1000</v>
       </c>
       <c r="F57" s="3">
         <v>1000</v>
       </c>
       <c r="G57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1400</v>
       </c>
       <c r="J57" s="3">
         <v>1400</v>
       </c>
       <c r="K57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1200</v>
       </c>
       <c r="R57" s="3">
         <v>1200</v>
       </c>
       <c r="S57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -3222,7 +3356,7 @@
         <v>500</v>
       </c>
       <c r="J58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
@@ -3231,225 +3365,237 @@
         <v>400</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
       <c r="Q58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>400</v>
       </c>
       <c r="S58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1000</v>
       </c>
       <c r="M59" s="3">
         <v>1000</v>
       </c>
       <c r="N59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E62" s="3">
         <v>2000</v>
       </c>
       <c r="F62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1700</v>
       </c>
       <c r="I62" s="3">
         <v>1700</v>
       </c>
       <c r="J62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>600</v>
       </c>
       <c r="L62" s="3">
         <v>600</v>
@@ -3458,10 +3604,10 @@
         <v>600</v>
       </c>
       <c r="N62" s="3">
+        <v>600</v>
+      </c>
+      <c r="O62" s="3">
         <v>500</v>
-      </c>
-      <c r="O62" s="3">
-        <v>800</v>
       </c>
       <c r="P62" s="3">
         <v>800</v>
@@ -3470,16 +3616,19 @@
         <v>800</v>
       </c>
       <c r="R62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S62" s="3">
         <v>700</v>
       </c>
       <c r="T62" s="3">
+        <v>700</v>
+      </c>
+      <c r="U62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E66" s="3">
         <v>13700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E72" s="3">
         <v>4800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>4200</v>
       </c>
       <c r="I72" s="3">
         <v>4200</v>
       </c>
       <c r="J72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K72" s="3">
         <v>3800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>3700</v>
       </c>
       <c r="L72" s="3">
         <v>3700</v>
       </c>
       <c r="M72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N72" s="3">
         <v>3800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>3300</v>
       </c>
       <c r="Q72" s="3">
         <v>3300</v>
       </c>
       <c r="R72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S72" s="3">
         <v>3000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,31 +4355,34 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E76" s="3">
         <v>13700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>13200</v>
       </c>
       <c r="I76" s="3">
         <v>13200</v>
       </c>
       <c r="J76" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="K76" s="3">
         <v>12800</v>
@@ -4205,31 +4391,34 @@
         <v>12800</v>
       </c>
       <c r="M76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="N76" s="3">
         <v>12900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>12400</v>
       </c>
       <c r="Q76" s="3">
         <v>12400</v>
       </c>
       <c r="R76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="S76" s="3">
         <v>12100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>300</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4453,14 +4652,14 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
+        <v>300</v>
+      </c>
+      <c r="M83" s="3">
         <v>800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
-        <v>300</v>
-      </c>
       <c r="O83" s="3">
         <v>300</v>
       </c>
@@ -4468,19 +4667,22 @@
         <v>300</v>
       </c>
       <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
-        <v>300</v>
-      </c>
       <c r="S83" s="3">
         <v>300</v>
       </c>
       <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
         <v>1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>800</v>
       </c>
       <c r="M89" s="3">
         <v>800</v>
       </c>
       <c r="N89" s="3">
+        <v>800</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-400</v>
       </c>
       <c r="Q94" s="3">
         <v>-400</v>
       </c>
       <c r="R94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5319,37 +5565,37 @@
         <v>-100</v>
       </c>
       <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-100</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
-        <v>300</v>
-      </c>
       <c r="L102" s="3">
+        <v>300</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>BWTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7600</v>
+        <v>9600</v>
       </c>
       <c r="E8" s="3">
         <v>7600</v>
       </c>
       <c r="F8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G8" s="3">
         <v>8900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6300</v>
-      </c>
-      <c r="T8" s="3">
-        <v>5900</v>
       </c>
       <c r="U8" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3800</v>
+        <v>5200</v>
       </c>
       <c r="E9" s="3">
         <v>3800</v>
       </c>
       <c r="F9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G9" s="3">
         <v>4100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>3600</v>
       </c>
       <c r="Q9" s="3">
         <v>3600</v>
       </c>
       <c r="R9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S9" s="3">
         <v>4500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3800</v>
+        <v>4400</v>
       </c>
       <c r="E10" s="3">
         <v>3800</v>
       </c>
       <c r="F10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G10" s="3">
         <v>4800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3100</v>
       </c>
       <c r="I10" s="3">
         <v>3100</v>
       </c>
       <c r="J10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K10" s="3">
         <v>4200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3100</v>
       </c>
       <c r="L10" s="3">
         <v>3100</v>
       </c>
       <c r="M10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N10" s="3">
         <v>9700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6700</v>
-      </c>
-      <c r="O10" s="3">
-        <v>2900</v>
       </c>
       <c r="P10" s="3">
         <v>2900</v>
       </c>
       <c r="Q10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R10" s="3">
         <v>2800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,16 +1084,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1094,8 +1113,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1103,17 +1122,17 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1121,14 +1140,17 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,14 +1182,14 @@
         <v>300</v>
       </c>
       <c r="M15" s="3">
+        <v>300</v>
+      </c>
+      <c r="N15" s="3">
         <v>800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>500</v>
       </c>
-      <c r="O15" s="3">
-        <v>300</v>
-      </c>
       <c r="P15" s="3">
         <v>300</v>
       </c>
@@ -1175,19 +1197,22 @@
         <v>300</v>
       </c>
       <c r="R15" s="3">
+        <v>300</v>
+      </c>
+      <c r="S15" s="3">
         <v>200</v>
       </c>
-      <c r="S15" s="3">
-        <v>300</v>
-      </c>
       <c r="T15" s="3">
         <v>300</v>
       </c>
       <c r="U15" s="3">
+        <v>300</v>
+      </c>
+      <c r="V15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>100</v>
       </c>
       <c r="L18" s="3">
         <v>100</v>
       </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,17 +1379,18 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1365,11 +1398,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1377,96 +1410,102 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>300</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>900</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
-        <v>300</v>
-      </c>
       <c r="I21" s="3">
+        <v>300</v>
+      </c>
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1100</v>
       </c>
-      <c r="O21" s="3">
-        <v>300</v>
-      </c>
       <c r="P21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
-        <v>300</v>
-      </c>
       <c r="R21" s="3">
+        <v>300</v>
+      </c>
+      <c r="S21" s="3">
         <v>800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1498,10 +1537,10 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1513,7 +1552,7 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1524,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>300</v>
+      </c>
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
-        <v>300</v>
-      </c>
       <c r="T23" s="3">
+        <v>300</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
-        <v>300</v>
-      </c>
       <c r="F26" s="3">
+        <v>300</v>
+      </c>
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
-        <v>300</v>
-      </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>300</v>
+      </c>
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
-        <v>300</v>
-      </c>
       <c r="F27" s="3">
+        <v>300</v>
+      </c>
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
-        <v>300</v>
-      </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>300</v>
+      </c>
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1907,38 +1967,41 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O29" s="3">
         <v>200</v>
       </c>
       <c r="P29" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>200</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,17 +2121,20 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2073,11 +2142,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2085,96 +2154,102 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
-        <v>300</v>
-      </c>
       <c r="F33" s="3">
+        <v>300</v>
+      </c>
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>300</v>
+      </c>
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
-        <v>300</v>
-      </c>
       <c r="F35" s="3">
+        <v>300</v>
+      </c>
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>300</v>
+      </c>
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E41" s="3">
         <v>7600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3600</v>
-      </c>
-      <c r="P41" s="3">
-        <v>4000</v>
       </c>
       <c r="Q41" s="3">
         <v>4000</v>
       </c>
       <c r="R41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S41" s="3">
         <v>4300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2487,13 +2576,13 @@
         <v>1200</v>
       </c>
       <c r="K42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L42" s="3">
         <v>1000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>900</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1000</v>
       </c>
       <c r="N42" s="3">
         <v>1000</v>
@@ -2519,8 +2608,11 @@
       <c r="U42" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2540,11 +2632,11 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2578,67 +2670,73 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E44" s="3">
         <v>3900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>4200</v>
       </c>
       <c r="J44" s="3">
         <v>4200</v>
       </c>
       <c r="K44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L44" s="3">
         <v>4400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2646,13 +2744,13 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -2673,7 +2771,7 @@
         <v>300</v>
       </c>
       <c r="N45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>400</v>
@@ -2682,7 +2780,7 @@
         <v>400</v>
       </c>
       <c r="Q45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R45" s="3">
         <v>300</v>
@@ -2691,72 +2789,78 @@
         <v>300</v>
       </c>
       <c r="T45" s="3">
+        <v>300</v>
+      </c>
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E46" s="3">
         <v>13000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>10300</v>
       </c>
       <c r="H46" s="3">
         <v>10300</v>
       </c>
       <c r="I46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J46" s="3">
         <v>10500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2773,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>800</v>
@@ -2788,7 +2892,7 @@
         <v>800</v>
       </c>
       <c r="M47" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N47" s="3">
         <v>300</v>
@@ -2812,69 +2916,75 @@
         <v>300</v>
       </c>
       <c r="U47" s="3">
+        <v>300</v>
+      </c>
+      <c r="V47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E48" s="3">
         <v>14500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>14600</v>
       </c>
       <c r="F48" s="3">
         <v>14600</v>
       </c>
       <c r="G48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H48" s="3">
         <v>14900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>14000</v>
       </c>
       <c r="K48" s="3">
         <v>14000</v>
       </c>
       <c r="L48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="M48" s="3">
         <v>13000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2899,14 +3009,14 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2918,11 +3028,11 @@
         <v>0</v>
       </c>
       <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
         <v>100</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,40 +3166,43 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>500</v>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E54" s="3">
         <v>27600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>25200</v>
       </c>
       <c r="H54" s="3">
         <v>25200</v>
       </c>
       <c r="I54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="J54" s="3">
         <v>25100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,75 +3402,79 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1000</v>
       </c>
       <c r="G57" s="3">
         <v>1000</v>
       </c>
       <c r="H57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1400</v>
       </c>
       <c r="K57" s="3">
         <v>1400</v>
       </c>
       <c r="L57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1200</v>
       </c>
       <c r="S57" s="3">
         <v>1200</v>
       </c>
       <c r="T57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -3359,7 +3492,7 @@
         <v>500</v>
       </c>
       <c r="K58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
@@ -3368,237 +3501,249 @@
         <v>400</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
       </c>
       <c r="P58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
       </c>
       <c r="R58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>400</v>
       </c>
       <c r="T58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1000</v>
       </c>
       <c r="N59" s="3">
         <v>1000</v>
       </c>
       <c r="O59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E61" s="3">
         <v>8000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2000</v>
       </c>
       <c r="F62" s="3">
         <v>2000</v>
       </c>
       <c r="G62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1700</v>
       </c>
       <c r="J62" s="3">
         <v>1700</v>
       </c>
       <c r="K62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L62" s="3">
         <v>1500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>600</v>
       </c>
       <c r="M62" s="3">
         <v>600</v>
@@ -3607,10 +3752,10 @@
         <v>600</v>
       </c>
       <c r="O62" s="3">
+        <v>600</v>
+      </c>
+      <c r="P62" s="3">
         <v>500</v>
-      </c>
-      <c r="P62" s="3">
-        <v>800</v>
       </c>
       <c r="Q62" s="3">
         <v>800</v>
@@ -3619,16 +3764,19 @@
         <v>800</v>
       </c>
       <c r="S62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T62" s="3">
         <v>700</v>
       </c>
       <c r="U62" s="3">
+        <v>700</v>
+      </c>
+      <c r="V62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E66" s="3">
         <v>13800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E72" s="3">
         <v>4900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>4200</v>
       </c>
       <c r="J72" s="3">
         <v>4200</v>
       </c>
       <c r="K72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L72" s="3">
         <v>3800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>3700</v>
       </c>
       <c r="M72" s="3">
         <v>3700</v>
       </c>
       <c r="N72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O72" s="3">
         <v>3800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>3300</v>
       </c>
       <c r="R72" s="3">
         <v>3300</v>
       </c>
       <c r="S72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T72" s="3">
         <v>3000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,34 +4540,37 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E76" s="3">
         <v>13800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>13200</v>
       </c>
       <c r="J76" s="3">
         <v>13200</v>
       </c>
       <c r="K76" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="L76" s="3">
         <v>12800</v>
@@ -4394,31 +4579,34 @@
         <v>12800</v>
       </c>
       <c r="N76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="O76" s="3">
         <v>12900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12300</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>12400</v>
       </c>
       <c r="R76" s="3">
         <v>12400</v>
       </c>
       <c r="S76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="T76" s="3">
         <v>12100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
-        <v>300</v>
-      </c>
       <c r="F81" s="3">
+        <v>300</v>
+      </c>
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>300</v>
+      </c>
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4655,14 +4853,14 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
+        <v>300</v>
+      </c>
+      <c r="N83" s="3">
         <v>800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
-        <v>300</v>
-      </c>
       <c r="P83" s="3">
         <v>300</v>
       </c>
@@ -4670,19 +4868,22 @@
         <v>300</v>
       </c>
       <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
-        <v>300</v>
-      </c>
       <c r="T83" s="3">
         <v>300</v>
       </c>
       <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>800</v>
       </c>
       <c r="N89" s="3">
         <v>800</v>
       </c>
       <c r="O89" s="3">
+        <v>800</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-400</v>
       </c>
       <c r="R94" s="3">
         <v>-400</v>
       </c>
       <c r="S94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5568,37 +5813,37 @@
         <v>-100</v>
       </c>
       <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-100</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
@@ -5612,8 +5857,11 @@
       <c r="U100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
-        <v>300</v>
-      </c>
       <c r="M102" s="3">
+        <v>300</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>BWTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7600</v>
       </c>
       <c r="F8" s="3">
         <v>7600</v>
       </c>
       <c r="G8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H8" s="3">
         <v>8900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6300</v>
-      </c>
-      <c r="U8" s="3">
-        <v>5900</v>
       </c>
       <c r="V8" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E9" s="3">
         <v>5200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3800</v>
       </c>
       <c r="F9" s="3">
         <v>3800</v>
       </c>
       <c r="G9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H9" s="3">
         <v>4100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>3600</v>
       </c>
       <c r="R9" s="3">
         <v>3600</v>
       </c>
       <c r="S9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T9" s="3">
         <v>4500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E10" s="3">
         <v>4400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3800</v>
       </c>
       <c r="F10" s="3">
         <v>3800</v>
       </c>
       <c r="G10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H10" s="3">
         <v>4800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3100</v>
       </c>
       <c r="J10" s="3">
         <v>3100</v>
       </c>
       <c r="K10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L10" s="3">
         <v>4200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>3100</v>
       </c>
       <c r="M10" s="3">
         <v>3100</v>
       </c>
       <c r="N10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O10" s="3">
         <v>9700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6700</v>
-      </c>
-      <c r="P10" s="3">
-        <v>2900</v>
       </c>
       <c r="Q10" s="3">
         <v>2900</v>
       </c>
       <c r="R10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S10" s="3">
         <v>2800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,19 +1104,22 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1116,8 +1136,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1125,17 +1145,17 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1143,14 +1163,17 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,14 +1208,14 @@
         <v>300</v>
       </c>
       <c r="N15" s="3">
+        <v>300</v>
+      </c>
+      <c r="O15" s="3">
         <v>800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>500</v>
       </c>
-      <c r="P15" s="3">
-        <v>300</v>
-      </c>
       <c r="Q15" s="3">
         <v>300</v>
       </c>
@@ -1200,19 +1223,22 @@
         <v>300</v>
       </c>
       <c r="S15" s="3">
+        <v>300</v>
+      </c>
+      <c r="T15" s="3">
         <v>200</v>
       </c>
-      <c r="T15" s="3">
-        <v>300</v>
-      </c>
       <c r="U15" s="3">
         <v>300</v>
       </c>
       <c r="V15" s="3">
+        <v>300</v>
+      </c>
+      <c r="W15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E17" s="3">
         <v>9000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>100</v>
       </c>
       <c r="M18" s="3">
         <v>100</v>
       </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,20 +1413,21 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1401,11 +1435,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1413,99 +1447,105 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>300</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
-        <v>300</v>
-      </c>
       <c r="J21" s="3">
+        <v>300</v>
+      </c>
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1100</v>
       </c>
-      <c r="P21" s="3">
-        <v>300</v>
-      </c>
       <c r="Q21" s="3">
+        <v>300</v>
+      </c>
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
-        <v>300</v>
-      </c>
       <c r="S21" s="3">
+        <v>300</v>
+      </c>
+      <c r="T21" s="3">
         <v>800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>100</v>
       </c>
-      <c r="V21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1540,10 +1580,10 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1555,7 +1595,7 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>300</v>
+      </c>
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="T23" s="3">
-        <v>300</v>
-      </c>
       <c r="U23" s="3">
+        <v>300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
-        <v>300</v>
-      </c>
       <c r="G26" s="3">
+        <v>300</v>
+      </c>
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
-        <v>300</v>
-      </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>300</v>
+      </c>
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
-        <v>300</v>
-      </c>
       <c r="G27" s="3">
+        <v>300</v>
+      </c>
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
-        <v>300</v>
-      </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>300</v>
+      </c>
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1970,38 +2031,41 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P29" s="3">
         <v>200</v>
       </c>
       <c r="Q29" s="3">
+        <v>200</v>
+      </c>
+      <c r="R29" s="3">
         <v>-200</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>200</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,20 +2191,23 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2145,11 +2215,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2157,99 +2227,105 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
-        <v>300</v>
-      </c>
       <c r="G33" s="3">
+        <v>300</v>
+      </c>
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>300</v>
+      </c>
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
-        <v>300</v>
-      </c>
       <c r="G35" s="3">
+        <v>300</v>
+      </c>
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>300</v>
+      </c>
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E41" s="3">
         <v>7400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3600</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>4000</v>
       </c>
       <c r="R41" s="3">
         <v>4000</v>
       </c>
       <c r="S41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T41" s="3">
         <v>4300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2579,13 +2669,13 @@
         <v>1200</v>
       </c>
       <c r="L42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M42" s="3">
         <v>1000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>900</v>
-      </c>
-      <c r="N42" s="3">
-        <v>1000</v>
       </c>
       <c r="O42" s="3">
         <v>1000</v>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2635,11 +2728,11 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -2673,87 +2766,93 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E44" s="3">
         <v>4600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>4200</v>
       </c>
       <c r="K44" s="3">
         <v>4200</v>
       </c>
       <c r="L44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M44" s="3">
         <v>4400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
@@ -2774,7 +2873,7 @@
         <v>300</v>
       </c>
       <c r="O45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>400</v>
@@ -2783,7 +2882,7 @@
         <v>400</v>
       </c>
       <c r="R45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S45" s="3">
         <v>300</v>
@@ -2792,75 +2891,81 @@
         <v>300</v>
       </c>
       <c r="U45" s="3">
+        <v>300</v>
+      </c>
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E46" s="3">
         <v>13500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>10300</v>
       </c>
       <c r="I46" s="3">
         <v>10300</v>
       </c>
       <c r="J46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K46" s="3">
         <v>10500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2880,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>800</v>
@@ -2895,7 +3000,7 @@
         <v>800</v>
       </c>
       <c r="N47" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="O47" s="3">
         <v>300</v>
@@ -2919,72 +3024,78 @@
         <v>300</v>
       </c>
       <c r="V47" s="3">
+        <v>300</v>
+      </c>
+      <c r="W47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E48" s="3">
         <v>14300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>14600</v>
       </c>
       <c r="G48" s="3">
         <v>14600</v>
       </c>
       <c r="H48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="I48" s="3">
         <v>14900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>14000</v>
       </c>
       <c r="L48" s="3">
         <v>14000</v>
       </c>
       <c r="M48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="N48" s="3">
         <v>13000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3012,14 +3123,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3031,11 +3142,11 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>100</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3195,17 +3315,17 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>500</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E54" s="3">
         <v>27900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>25200</v>
       </c>
       <c r="I54" s="3">
         <v>25200</v>
       </c>
       <c r="J54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K54" s="3">
         <v>25100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>19300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1000</v>
       </c>
       <c r="H57" s="3">
         <v>1000</v>
       </c>
       <c r="I57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1400</v>
       </c>
       <c r="L57" s="3">
         <v>1400</v>
       </c>
       <c r="M57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1200</v>
       </c>
       <c r="T57" s="3">
         <v>1200</v>
       </c>
       <c r="U57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,10 +3608,10 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>500</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
@@ -3495,7 +3629,7 @@
         <v>500</v>
       </c>
       <c r="L58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M58" s="3">
         <v>400</v>
@@ -3504,249 +3638,261 @@
         <v>400</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
       </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
       <c r="S58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T58" s="3">
         <v>400</v>
       </c>
       <c r="U58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1000</v>
       </c>
       <c r="O59" s="3">
         <v>1000</v>
       </c>
       <c r="P59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E61" s="3">
         <v>7900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2000</v>
       </c>
       <c r="G62" s="3">
         <v>2000</v>
       </c>
       <c r="H62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1700</v>
       </c>
       <c r="K62" s="3">
         <v>1700</v>
       </c>
       <c r="L62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M62" s="3">
         <v>1500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>600</v>
       </c>
       <c r="N62" s="3">
         <v>600</v>
@@ -3755,10 +3901,10 @@
         <v>600</v>
       </c>
       <c r="P62" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q62" s="3">
         <v>500</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>800</v>
       </c>
       <c r="R62" s="3">
         <v>800</v>
@@ -3767,16 +3913,19 @@
         <v>800</v>
       </c>
       <c r="T62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="U62" s="3">
         <v>700</v>
       </c>
       <c r="V62" s="3">
+        <v>700</v>
+      </c>
+      <c r="W62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E72" s="3">
         <v>5200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>4200</v>
       </c>
       <c r="K72" s="3">
         <v>4200</v>
       </c>
       <c r="L72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M72" s="3">
         <v>3800</v>
-      </c>
-      <c r="M72" s="3">
-        <v>3700</v>
       </c>
       <c r="N72" s="3">
         <v>3700</v>
       </c>
       <c r="O72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P72" s="3">
         <v>3800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3200</v>
-      </c>
-      <c r="R72" s="3">
-        <v>3300</v>
       </c>
       <c r="S72" s="3">
         <v>3300</v>
       </c>
       <c r="T72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U72" s="3">
         <v>3000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,37 +4726,40 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E76" s="3">
         <v>14200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>13200</v>
       </c>
       <c r="K76" s="3">
         <v>13200</v>
       </c>
       <c r="L76" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="M76" s="3">
         <v>12800</v>
@@ -4582,31 +4768,34 @@
         <v>12800</v>
       </c>
       <c r="O76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="P76" s="3">
         <v>12900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>12400</v>
       </c>
       <c r="S76" s="3">
         <v>12400</v>
       </c>
       <c r="T76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="U76" s="3">
         <v>12100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
-        <v>300</v>
-      </c>
       <c r="G81" s="3">
+        <v>300</v>
+      </c>
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>300</v>
+      </c>
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4856,14 +5055,14 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
+        <v>300</v>
+      </c>
+      <c r="O83" s="3">
         <v>800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3">
-        <v>300</v>
-      </c>
       <c r="Q83" s="3">
         <v>300</v>
       </c>
@@ -4871,19 +5070,22 @@
         <v>300</v>
       </c>
       <c r="S83" s="3">
+        <v>300</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3">
-        <v>300</v>
-      </c>
       <c r="U83" s="3">
         <v>300</v>
       </c>
       <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>800</v>
       </c>
       <c r="O89" s="3">
         <v>800</v>
       </c>
       <c r="P89" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5287,61 +5508,64 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5473,61 +5703,64 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-400</v>
       </c>
       <c r="S94" s="3">
         <v>-400</v>
       </c>
       <c r="T94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U94" s="3">
         <v>100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,13 +6041,16 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>-1300</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
@@ -5816,37 +6062,37 @@
         <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-100</v>
       </c>
       <c r="S100" s="3">
         <v>-100</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>300</v>
-      </c>
       <c r="F102" s="3">
+        <v>300</v>
+      </c>
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
-        <v>300</v>
-      </c>
       <c r="N102" s="3">
+        <v>300</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>BWTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E8" s="3">
         <v>14000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7600</v>
       </c>
       <c r="G8" s="3">
         <v>7600</v>
       </c>
       <c r="H8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I8" s="3">
         <v>8900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6300</v>
-      </c>
-      <c r="V8" s="3">
-        <v>5900</v>
       </c>
       <c r="W8" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E9" s="3">
         <v>7200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3800</v>
       </c>
       <c r="G9" s="3">
         <v>3800</v>
       </c>
       <c r="H9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I9" s="3">
         <v>4100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>3600</v>
       </c>
       <c r="S9" s="3">
         <v>3600</v>
       </c>
       <c r="T9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U9" s="3">
         <v>4500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E10" s="3">
         <v>6800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3800</v>
       </c>
       <c r="G10" s="3">
         <v>3800</v>
       </c>
       <c r="H10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I10" s="3">
         <v>4800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3100</v>
       </c>
       <c r="K10" s="3">
         <v>3100</v>
       </c>
       <c r="L10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M10" s="3">
         <v>4200</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3100</v>
       </c>
       <c r="N10" s="3">
         <v>3100</v>
       </c>
       <c r="O10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P10" s="3">
         <v>9700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6700</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>2900</v>
       </c>
       <c r="R10" s="3">
         <v>2900</v>
       </c>
       <c r="S10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T10" s="3">
         <v>2800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,11 +1138,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1139,8 +1159,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1148,17 +1168,17 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1166,14 +1186,17 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,14 +1234,14 @@
         <v>300</v>
       </c>
       <c r="O15" s="3">
+        <v>300</v>
+      </c>
+      <c r="P15" s="3">
         <v>800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>500</v>
       </c>
-      <c r="Q15" s="3">
-        <v>300</v>
-      </c>
       <c r="R15" s="3">
         <v>300</v>
       </c>
@@ -1226,19 +1249,22 @@
         <v>300</v>
       </c>
       <c r="T15" s="3">
+        <v>300</v>
+      </c>
+      <c r="U15" s="3">
         <v>200</v>
       </c>
-      <c r="U15" s="3">
-        <v>300</v>
-      </c>
       <c r="V15" s="3">
         <v>300</v>
       </c>
       <c r="W15" s="3">
+        <v>300</v>
+      </c>
+      <c r="X15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E17" s="3">
         <v>12600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="E18" s="3">
         <v>1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>100</v>
       </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,23 +1447,24 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1438,11 +1472,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1450,102 +1484,108 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>300</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
         <v>1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
-        <v>300</v>
-      </c>
       <c r="K21" s="3">
+        <v>300</v>
+      </c>
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>300</v>
-      </c>
       <c r="R21" s="3">
+        <v>300</v>
+      </c>
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
-        <v>300</v>
-      </c>
       <c r="T21" s="3">
+        <v>300</v>
+      </c>
+      <c r="U21" s="3">
         <v>800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>100</v>
       </c>
-      <c r="W21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1583,10 +1623,10 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1598,7 +1638,7 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>500</v>
       </c>
-      <c r="U23" s="3">
-        <v>300</v>
-      </c>
       <c r="V23" s="3">
+        <v>300</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
-        <v>300</v>
-      </c>
       <c r="H26" s="3">
+        <v>300</v>
+      </c>
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
-        <v>300</v>
-      </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>300</v>
+      </c>
+      <c r="V26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
-        <v>300</v>
-      </c>
       <c r="H27" s="3">
+        <v>300</v>
+      </c>
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
-        <v>300</v>
-      </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>300</v>
+      </c>
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2034,38 +2095,41 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="3">
         <v>200</v>
       </c>
       <c r="R29" s="3">
+        <v>200</v>
+      </c>
+      <c r="S29" s="3">
         <v>-200</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>200</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,23 +2261,26 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2218,11 +2288,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2230,102 +2300,108 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
-        <v>300</v>
-      </c>
       <c r="H33" s="3">
+        <v>300</v>
+      </c>
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>300</v>
+      </c>
+      <c r="V33" s="3">
         <v>400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
-        <v>300</v>
-      </c>
       <c r="H35" s="3">
+        <v>300</v>
+      </c>
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>300</v>
+      </c>
+      <c r="V35" s="3">
         <v>400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E41" s="3">
         <v>9100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3600</v>
-      </c>
-      <c r="R41" s="3">
-        <v>4000</v>
       </c>
       <c r="S41" s="3">
         <v>4000</v>
       </c>
       <c r="T41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U41" s="3">
         <v>4300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2672,13 +2762,13 @@
         <v>1200</v>
       </c>
       <c r="M42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N42" s="3">
         <v>1000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>900</v>
-      </c>
-      <c r="O42" s="3">
-        <v>1000</v>
       </c>
       <c r="P42" s="3">
         <v>1000</v>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2731,11 +2824,11 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -2769,73 +2862,79 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E44" s="3">
         <v>4200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>4200</v>
       </c>
       <c r="L44" s="3">
         <v>4200</v>
       </c>
       <c r="M44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N44" s="3">
         <v>4400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,19 +2942,19 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
@@ -2876,7 +2975,7 @@
         <v>300</v>
       </c>
       <c r="P45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q45" s="3">
         <v>400</v>
@@ -2885,7 +2984,7 @@
         <v>400</v>
       </c>
       <c r="S45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T45" s="3">
         <v>300</v>
@@ -2894,83 +2993,89 @@
         <v>300</v>
       </c>
       <c r="V45" s="3">
+        <v>300</v>
+      </c>
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="W45" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E46" s="3">
         <v>14600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>10300</v>
       </c>
       <c r="J46" s="3">
         <v>10300</v>
       </c>
       <c r="K46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="L46" s="3">
         <v>10500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2988,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>800</v>
@@ -3003,7 +3108,7 @@
         <v>800</v>
       </c>
       <c r="O47" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="P47" s="3">
         <v>300</v>
@@ -3027,75 +3132,81 @@
         <v>300</v>
       </c>
       <c r="W47" s="3">
+        <v>300</v>
+      </c>
+      <c r="X47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E48" s="3">
         <v>14500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>14600</v>
       </c>
       <c r="H48" s="3">
         <v>14600</v>
       </c>
       <c r="I48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="J48" s="3">
         <v>14900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>14000</v>
       </c>
       <c r="M48" s="3">
         <v>14000</v>
       </c>
       <c r="N48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="O48" s="3">
         <v>13000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>9600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3126,14 +3237,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3145,11 +3256,11 @@
         <v>0</v>
       </c>
       <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
         <v>100</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3318,17 +3438,17 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>500</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E54" s="3">
         <v>29200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>25200</v>
       </c>
       <c r="J54" s="3">
         <v>25200</v>
       </c>
       <c r="K54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="L54" s="3">
         <v>25100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>19300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1000</v>
       </c>
       <c r="I57" s="3">
         <v>1000</v>
       </c>
       <c r="J57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1400</v>
       </c>
       <c r="M57" s="3">
         <v>1400</v>
       </c>
       <c r="N57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1200</v>
       </c>
       <c r="U57" s="3">
         <v>1200</v>
       </c>
       <c r="V57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,10 +3745,10 @@
         <v>500</v>
       </c>
       <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3">
         <v>600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
@@ -3632,7 +3766,7 @@
         <v>500</v>
       </c>
       <c r="M58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
@@ -3641,261 +3775,273 @@
         <v>400</v>
       </c>
       <c r="P58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
       </c>
       <c r="R58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>200</v>
       </c>
       <c r="T58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="U58" s="3">
         <v>400</v>
       </c>
       <c r="V58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1000</v>
       </c>
       <c r="P59" s="3">
         <v>1000</v>
       </c>
       <c r="Q59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E61" s="3">
         <v>6700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2000</v>
       </c>
       <c r="H62" s="3">
         <v>2000</v>
       </c>
       <c r="I62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1700</v>
       </c>
       <c r="L62" s="3">
         <v>1700</v>
       </c>
       <c r="M62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N62" s="3">
         <v>1500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>600</v>
       </c>
       <c r="O62" s="3">
         <v>600</v>
@@ -3904,10 +4050,10 @@
         <v>600</v>
       </c>
       <c r="Q62" s="3">
+        <v>600</v>
+      </c>
+      <c r="R62" s="3">
         <v>500</v>
-      </c>
-      <c r="R62" s="3">
-        <v>800</v>
       </c>
       <c r="S62" s="3">
         <v>800</v>
@@ -3916,16 +4062,19 @@
         <v>800</v>
       </c>
       <c r="U62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="V62" s="3">
         <v>700</v>
       </c>
       <c r="W62" s="3">
+        <v>700</v>
+      </c>
+      <c r="X62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E66" s="3">
         <v>14000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E72" s="3">
         <v>6200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>4200</v>
       </c>
       <c r="L72" s="3">
         <v>4200</v>
       </c>
       <c r="M72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N72" s="3">
         <v>3800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>3700</v>
       </c>
       <c r="O72" s="3">
         <v>3700</v>
       </c>
       <c r="P72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q72" s="3">
         <v>3800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3200</v>
-      </c>
-      <c r="S72" s="3">
-        <v>3300</v>
       </c>
       <c r="T72" s="3">
         <v>3300</v>
       </c>
       <c r="U72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="V72" s="3">
         <v>3000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,40 +4912,43 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E76" s="3">
         <v>15200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>13200</v>
       </c>
       <c r="L76" s="3">
         <v>13200</v>
       </c>
       <c r="M76" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="N76" s="3">
         <v>12800</v>
@@ -4771,31 +4957,34 @@
         <v>12800</v>
       </c>
       <c r="P76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="Q76" s="3">
         <v>12900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>12400</v>
       </c>
       <c r="T76" s="3">
         <v>12400</v>
       </c>
       <c r="U76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="V76" s="3">
         <v>12100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
-        <v>300</v>
-      </c>
       <c r="H81" s="3">
+        <v>300</v>
+      </c>
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>300</v>
+      </c>
+      <c r="V81" s="3">
         <v>400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5058,14 +5257,14 @@
         <v>300</v>
       </c>
       <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3">
         <v>800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3">
-        <v>300</v>
-      </c>
       <c r="R83" s="3">
         <v>300</v>
       </c>
@@ -5073,19 +5272,22 @@
         <v>300</v>
       </c>
       <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
-        <v>300</v>
-      </c>
       <c r="V83" s="3">
         <v>300</v>
       </c>
       <c r="W83" s="3">
+        <v>300</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>800</v>
       </c>
       <c r="P89" s="3">
         <v>800</v>
       </c>
       <c r="Q89" s="3">
+        <v>800</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
       </c>
       <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-700</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-400</v>
       </c>
       <c r="T94" s="3">
         <v>-400</v>
       </c>
       <c r="U94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V94" s="3">
         <v>100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,16 +6287,19 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
@@ -6065,37 +6311,37 @@
         <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-100</v>
       </c>
       <c r="T100" s="3">
         <v>-100</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>300</v>
-      </c>
       <c r="G102" s="3">
+        <v>300</v>
+      </c>
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
-        <v>300</v>
-      </c>
       <c r="O102" s="3">
+        <v>300</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>BWTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E8" s="3">
         <v>9700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>7600</v>
       </c>
       <c r="H8" s="3">
         <v>7600</v>
       </c>
       <c r="I8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J8" s="3">
         <v>8900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6300</v>
-      </c>
-      <c r="W8" s="3">
-        <v>5900</v>
       </c>
       <c r="X8" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E9" s="3">
         <v>5400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3800</v>
       </c>
       <c r="H9" s="3">
         <v>3800</v>
       </c>
       <c r="I9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J9" s="3">
         <v>4100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4000</v>
-      </c>
-      <c r="S9" s="3">
-        <v>3600</v>
       </c>
       <c r="T9" s="3">
         <v>3600</v>
       </c>
       <c r="U9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V9" s="3">
         <v>4500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E10" s="3">
         <v>4300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3800</v>
       </c>
       <c r="H10" s="3">
         <v>3800</v>
       </c>
       <c r="I10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J10" s="3">
         <v>4800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3100</v>
       </c>
       <c r="L10" s="3">
         <v>3100</v>
       </c>
       <c r="M10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N10" s="3">
         <v>4200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3100</v>
       </c>
       <c r="O10" s="3">
         <v>3100</v>
       </c>
       <c r="P10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>9700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6700</v>
-      </c>
-      <c r="R10" s="3">
-        <v>2900</v>
       </c>
       <c r="S10" s="3">
         <v>2900</v>
       </c>
       <c r="T10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U10" s="3">
         <v>2800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1144,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1141,11 +1161,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1162,8 +1182,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1171,17 +1191,17 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1189,14 +1209,17 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,14 +1260,14 @@
         <v>300</v>
       </c>
       <c r="P15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>500</v>
       </c>
-      <c r="R15" s="3">
-        <v>300</v>
-      </c>
       <c r="S15" s="3">
         <v>300</v>
       </c>
@@ -1252,19 +1275,22 @@
         <v>300</v>
       </c>
       <c r="U15" s="3">
+        <v>300</v>
+      </c>
+      <c r="V15" s="3">
         <v>200</v>
       </c>
-      <c r="V15" s="3">
-        <v>300</v>
-      </c>
       <c r="W15" s="3">
         <v>300</v>
       </c>
       <c r="X15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E17" s="3">
         <v>9200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>100</v>
       </c>
       <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,17 +1491,17 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1475,11 +1509,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1487,105 +1521,111 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>300</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
-        <v>300</v>
-      </c>
       <c r="L21" s="3">
+        <v>300</v>
+      </c>
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1100</v>
       </c>
-      <c r="R21" s="3">
-        <v>300</v>
-      </c>
       <c r="S21" s="3">
+        <v>300</v>
+      </c>
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="T21" s="3">
-        <v>300</v>
-      </c>
       <c r="U21" s="3">
+        <v>300</v>
+      </c>
+      <c r="V21" s="3">
         <v>800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>100</v>
       </c>
-      <c r="X21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1626,10 +1666,10 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1641,7 +1681,7 @@
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1652,144 +1692,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>300</v>
+      </c>
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>500</v>
       </c>
-      <c r="V23" s="3">
-        <v>300</v>
-      </c>
       <c r="W23" s="3">
+        <v>300</v>
+      </c>
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
-        <v>300</v>
-      </c>
       <c r="I26" s="3">
+        <v>300</v>
+      </c>
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>300</v>
-      </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>300</v>
+      </c>
+      <c r="W26" s="3">
         <v>200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
-        <v>300</v>
-      </c>
       <c r="I27" s="3">
+        <v>300</v>
+      </c>
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>300</v>
-      </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>300</v>
+      </c>
+      <c r="W27" s="3">
         <v>200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2098,38 +2159,41 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R29" s="3">
         <v>200</v>
       </c>
       <c r="S29" s="3">
+        <v>200</v>
+      </c>
+      <c r="T29" s="3">
         <v>-200</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>200</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,17 +2343,17 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2291,11 +2361,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2303,105 +2373,111 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
-        <v>300</v>
-      </c>
       <c r="I33" s="3">
+        <v>300</v>
+      </c>
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>300</v>
+      </c>
+      <c r="W33" s="3">
         <v>400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
-        <v>300</v>
-      </c>
       <c r="I35" s="3">
+        <v>300</v>
+      </c>
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>300</v>
+      </c>
+      <c r="W35" s="3">
         <v>400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E41" s="3">
         <v>8400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3600</v>
-      </c>
-      <c r="S41" s="3">
-        <v>4000</v>
       </c>
       <c r="T41" s="3">
         <v>4000</v>
       </c>
       <c r="U41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="V41" s="3">
         <v>4300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2765,13 +2855,13 @@
         <v>1200</v>
       </c>
       <c r="N42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O42" s="3">
         <v>1000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>900</v>
-      </c>
-      <c r="P42" s="3">
-        <v>1000</v>
       </c>
       <c r="Q42" s="3">
         <v>1000</v>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2827,11 +2920,11 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -2865,99 +2958,105 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E44" s="3">
         <v>5300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4000</v>
-      </c>
-      <c r="L44" s="3">
-        <v>4200</v>
       </c>
       <c r="M44" s="3">
         <v>4200</v>
       </c>
       <c r="N44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O44" s="3">
         <v>4400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -2978,7 +3077,7 @@
         <v>300</v>
       </c>
       <c r="Q45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R45" s="3">
         <v>400</v>
@@ -2987,7 +3086,7 @@
         <v>400</v>
       </c>
       <c r="T45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U45" s="3">
         <v>300</v>
@@ -2996,90 +3095,96 @@
         <v>300</v>
       </c>
       <c r="W45" s="3">
+        <v>300</v>
+      </c>
+      <c r="X45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>10300</v>
       </c>
       <c r="K46" s="3">
         <v>10300</v>
       </c>
       <c r="L46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="M46" s="3">
         <v>10500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>700</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
@@ -3096,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>800</v>
@@ -3111,7 +3216,7 @@
         <v>800</v>
       </c>
       <c r="P47" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q47" s="3">
         <v>300</v>
@@ -3135,78 +3240,84 @@
         <v>300</v>
       </c>
       <c r="X47" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E48" s="3">
         <v>13700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>14600</v>
       </c>
       <c r="I48" s="3">
         <v>14600</v>
       </c>
       <c r="J48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K48" s="3">
         <v>14900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>14000</v>
       </c>
       <c r="N48" s="3">
         <v>14000</v>
       </c>
       <c r="O48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="P48" s="3">
         <v>13000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>9500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>9600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3240,14 +3351,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3259,11 +3370,11 @@
         <v>0</v>
       </c>
       <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
         <v>100</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
-      </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3441,17 +3561,17 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>500</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E54" s="3">
         <v>29600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>25200</v>
       </c>
       <c r="K54" s="3">
         <v>25200</v>
       </c>
       <c r="L54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="M54" s="3">
         <v>25100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>19700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>20000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3795,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1000</v>
       </c>
       <c r="J57" s="3">
         <v>1000</v>
       </c>
       <c r="K57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1400</v>
       </c>
       <c r="N57" s="3">
         <v>1400</v>
       </c>
       <c r="O57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1200</v>
       </c>
       <c r="V57" s="3">
         <v>1200</v>
       </c>
       <c r="W57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3748,10 +3882,10 @@
         <v>500</v>
       </c>
       <c r="G58" s="3">
+        <v>500</v>
+      </c>
+      <c r="H58" s="3">
         <v>600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>500</v>
@@ -3769,7 +3903,7 @@
         <v>500</v>
       </c>
       <c r="N58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
@@ -3778,235 +3912,247 @@
         <v>400</v>
       </c>
       <c r="Q58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
       </c>
       <c r="S58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
       </c>
       <c r="U58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="V58" s="3">
         <v>400</v>
       </c>
       <c r="W58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1000</v>
       </c>
       <c r="Q59" s="3">
         <v>1000</v>
       </c>
       <c r="R59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E61" s="3">
         <v>6600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4014,37 +4160,37 @@
         <v>2100</v>
       </c>
       <c r="E62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F62" s="3">
         <v>2200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2000</v>
       </c>
       <c r="I62" s="3">
         <v>2000</v>
       </c>
       <c r="J62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1700</v>
       </c>
       <c r="M62" s="3">
         <v>1700</v>
       </c>
       <c r="N62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O62" s="3">
         <v>1500</v>
-      </c>
-      <c r="O62" s="3">
-        <v>600</v>
       </c>
       <c r="P62" s="3">
         <v>600</v>
@@ -4053,10 +4199,10 @@
         <v>600</v>
       </c>
       <c r="R62" s="3">
+        <v>600</v>
+      </c>
+      <c r="S62" s="3">
         <v>500</v>
-      </c>
-      <c r="S62" s="3">
-        <v>800</v>
       </c>
       <c r="T62" s="3">
         <v>800</v>
@@ -4065,16 +4211,19 @@
         <v>800</v>
       </c>
       <c r="V62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="W62" s="3">
         <v>700</v>
       </c>
       <c r="X62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E66" s="3">
         <v>14100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E72" s="3">
         <v>6500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>4200</v>
       </c>
       <c r="M72" s="3">
         <v>4200</v>
       </c>
       <c r="N72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O72" s="3">
         <v>3800</v>
-      </c>
-      <c r="O72" s="3">
-        <v>3700</v>
       </c>
       <c r="P72" s="3">
         <v>3700</v>
       </c>
       <c r="Q72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R72" s="3">
         <v>3800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3200</v>
-      </c>
-      <c r="T72" s="3">
-        <v>3300</v>
       </c>
       <c r="U72" s="3">
         <v>3300</v>
       </c>
       <c r="V72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="W72" s="3">
         <v>3000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5098,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4924,34 +5110,34 @@
         <v>15500</v>
       </c>
       <c r="E76" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F76" s="3">
         <v>15200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>13200</v>
       </c>
       <c r="M76" s="3">
         <v>13200</v>
       </c>
       <c r="N76" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="O76" s="3">
         <v>12800</v>
@@ -4960,31 +5146,34 @@
         <v>12800</v>
       </c>
       <c r="Q76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="R76" s="3">
         <v>12900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12300</v>
-      </c>
-      <c r="T76" s="3">
-        <v>12400</v>
       </c>
       <c r="U76" s="3">
         <v>12400</v>
       </c>
       <c r="V76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="W76" s="3">
         <v>12100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
-        <v>300</v>
-      </c>
       <c r="I81" s="3">
+        <v>300</v>
+      </c>
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>300</v>
+      </c>
+      <c r="W81" s="3">
         <v>400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5260,14 +5459,14 @@
         <v>300</v>
       </c>
       <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>500</v>
       </c>
-      <c r="R83" s="3">
-        <v>300</v>
-      </c>
       <c r="S83" s="3">
         <v>300</v>
       </c>
@@ -5275,19 +5474,22 @@
         <v>300</v>
       </c>
       <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="V83" s="3">
-        <v>300</v>
-      </c>
       <c r="W83" s="3">
         <v>300</v>
       </c>
       <c r="X83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
-      </c>
-      <c r="P89" s="3">
-        <v>800</v>
       </c>
       <c r="Q89" s="3">
         <v>800</v>
       </c>
       <c r="R89" s="3">
+        <v>800</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5729,67 +5950,70 @@
         <v>-300</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5933,67 +6163,70 @@
         <v>-300</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
       </c>
       <c r="G94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-400</v>
       </c>
       <c r="U94" s="3">
         <v>-400</v>
       </c>
       <c r="V94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W94" s="3">
         <v>100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,10 +6545,10 @@
         <v>-200</v>
       </c>
       <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
@@ -6314,37 +6560,37 @@
         <v>-100</v>
       </c>
       <c r="J100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-100</v>
       </c>
       <c r="U100" s="3">
         <v>-100</v>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>300</v>
-      </c>
       <c r="H102" s="3">
+        <v>300</v>
+      </c>
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
-        <v>300</v>
-      </c>
       <c r="P102" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>BWTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,333 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E8" s="3">
         <v>10400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>7600</v>
       </c>
       <c r="I8" s="3">
         <v>7600</v>
       </c>
       <c r="J8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K8" s="3">
         <v>8900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>22900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6300</v>
-      </c>
-      <c r="X8" s="3">
-        <v>5900</v>
       </c>
       <c r="Y8" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E9" s="3">
         <v>5700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3800</v>
       </c>
       <c r="I9" s="3">
         <v>3800</v>
       </c>
       <c r="J9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K9" s="3">
         <v>4100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4000</v>
-      </c>
-      <c r="T9" s="3">
-        <v>3600</v>
       </c>
       <c r="U9" s="3">
         <v>3600</v>
       </c>
       <c r="V9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W9" s="3">
         <v>4500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E10" s="3">
         <v>4700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3800</v>
       </c>
       <c r="I10" s="3">
         <v>3800</v>
       </c>
       <c r="J10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K10" s="3">
         <v>4800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>3100</v>
       </c>
       <c r="M10" s="3">
         <v>3100</v>
       </c>
       <c r="N10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O10" s="3">
         <v>4200</v>
-      </c>
-      <c r="O10" s="3">
-        <v>3100</v>
       </c>
       <c r="P10" s="3">
         <v>3100</v>
       </c>
       <c r="Q10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R10" s="3">
         <v>9700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6700</v>
-      </c>
-      <c r="S10" s="3">
-        <v>2900</v>
       </c>
       <c r="T10" s="3">
         <v>2900</v>
       </c>
       <c r="U10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="V10" s="3">
         <v>2800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,16 +1163,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1164,11 +1183,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1185,8 +1204,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1194,17 +1213,17 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1212,14 +1231,17 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,14 +1285,14 @@
         <v>300</v>
       </c>
       <c r="Q15" s="3">
+        <v>300</v>
+      </c>
+      <c r="R15" s="3">
         <v>800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>500</v>
       </c>
-      <c r="S15" s="3">
-        <v>300</v>
-      </c>
       <c r="T15" s="3">
         <v>300</v>
       </c>
@@ -1278,19 +1300,22 @@
         <v>300</v>
       </c>
       <c r="V15" s="3">
+        <v>300</v>
+      </c>
+      <c r="W15" s="3">
         <v>200</v>
       </c>
-      <c r="W15" s="3">
-        <v>300</v>
-      </c>
       <c r="X15" s="3">
         <v>300</v>
       </c>
       <c r="Y15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E18" s="3">
+        <v>300</v>
+      </c>
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>100</v>
       </c>
       <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1494,17 +1527,17 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1512,11 +1545,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1524,108 +1557,114 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>300</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
-        <v>300</v>
-      </c>
       <c r="M21" s="3">
+        <v>300</v>
+      </c>
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1100</v>
       </c>
-      <c r="S21" s="3">
-        <v>300</v>
-      </c>
       <c r="T21" s="3">
+        <v>300</v>
+      </c>
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="U21" s="3">
-        <v>300</v>
-      </c>
       <c r="V21" s="3">
+        <v>300</v>
+      </c>
+      <c r="W21" s="3">
         <v>800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>100</v>
       </c>
-      <c r="Y21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1669,10 +1708,10 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1684,7 +1723,7 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1695,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>300</v>
+      </c>
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>500</v>
       </c>
-      <c r="W23" s="3">
-        <v>300</v>
-      </c>
       <c r="X23" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
-        <v>300</v>
-      </c>
       <c r="F26" s="3">
+        <v>300</v>
+      </c>
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
-        <v>300</v>
-      </c>
       <c r="J26" s="3">
+        <v>300</v>
+      </c>
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
-        <v>300</v>
-      </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>300</v>
+      </c>
+      <c r="X26" s="3">
         <v>200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
-        <v>300</v>
-      </c>
       <c r="F27" s="3">
+        <v>300</v>
+      </c>
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
-        <v>300</v>
-      </c>
       <c r="J27" s="3">
+        <v>300</v>
+      </c>
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
-        <v>300</v>
-      </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>300</v>
+      </c>
+      <c r="X27" s="3">
         <v>200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,31 +2178,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2162,38 +2222,41 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S29" s="3">
         <v>200</v>
       </c>
       <c r="T29" s="3">
+        <v>200</v>
+      </c>
+      <c r="U29" s="3">
         <v>-200</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>200</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2346,17 +2415,17 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2364,11 +2433,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2376,108 +2445,114 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
-        <v>300</v>
-      </c>
       <c r="F33" s="3">
+        <v>300</v>
+      </c>
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
-        <v>300</v>
-      </c>
       <c r="J33" s="3">
+        <v>300</v>
+      </c>
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>300</v>
+      </c>
+      <c r="X33" s="3">
         <v>400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
-        <v>300</v>
-      </c>
       <c r="F35" s="3">
+        <v>300</v>
+      </c>
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
-        <v>300</v>
-      </c>
       <c r="J35" s="3">
+        <v>300</v>
+      </c>
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>300</v>
+      </c>
+      <c r="X35" s="3">
         <v>400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E41" s="3">
         <v>8100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3600</v>
-      </c>
-      <c r="T41" s="3">
-        <v>4000</v>
       </c>
       <c r="U41" s="3">
         <v>4000</v>
       </c>
       <c r="V41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="W41" s="3">
         <v>4300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2858,13 +2947,13 @@
         <v>1200</v>
       </c>
       <c r="O42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P42" s="3">
         <v>1000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>900</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>1000</v>
       </c>
       <c r="R42" s="3">
         <v>1000</v>
@@ -2890,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2923,11 +3015,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -2961,79 +3053,85 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E44" s="3">
         <v>5400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>4200</v>
       </c>
       <c r="N44" s="3">
         <v>4200</v>
       </c>
       <c r="O44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P44" s="3">
         <v>4400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3041,25 +3139,25 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
@@ -3080,7 +3178,7 @@
         <v>300</v>
       </c>
       <c r="R45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S45" s="3">
         <v>400</v>
@@ -3089,7 +3187,7 @@
         <v>400</v>
       </c>
       <c r="U45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V45" s="3">
         <v>300</v>
@@ -3098,84 +3196,90 @@
         <v>300</v>
       </c>
       <c r="X45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
-      <c r="Y45" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E46" s="3">
         <v>15000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12000</v>
-      </c>
-      <c r="K46" s="3">
-        <v>10300</v>
       </c>
       <c r="L46" s="3">
         <v>10300</v>
       </c>
       <c r="M46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="N46" s="3">
         <v>10500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3183,11 +3287,11 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>700</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
@@ -3204,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>800</v>
@@ -3219,7 +3323,7 @@
         <v>800</v>
       </c>
       <c r="Q47" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="R47" s="3">
         <v>300</v>
@@ -3243,81 +3347,87 @@
         <v>300</v>
       </c>
       <c r="Y47" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E48" s="3">
         <v>14300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>14600</v>
       </c>
       <c r="J48" s="3">
         <v>14600</v>
       </c>
       <c r="K48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="L48" s="3">
         <v>14900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>14000</v>
       </c>
       <c r="O48" s="3">
         <v>14000</v>
       </c>
       <c r="P48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>13000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>9600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>9500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>9600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3354,14 +3464,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3373,11 +3483,11 @@
         <v>0</v>
       </c>
       <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
         <v>100</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
       <c r="W49" s="3">
         <v>0</v>
       </c>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3564,17 +3683,17 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>500</v>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E54" s="3">
         <v>29400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>25200</v>
       </c>
       <c r="L54" s="3">
         <v>25200</v>
       </c>
       <c r="M54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="N54" s="3">
         <v>25100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>19700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>20000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>19300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1000</v>
       </c>
       <c r="K57" s="3">
         <v>1000</v>
       </c>
       <c r="L57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1400</v>
       </c>
       <c r="O57" s="3">
         <v>1400</v>
       </c>
       <c r="P57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
-      </c>
-      <c r="V57" s="3">
-        <v>1200</v>
       </c>
       <c r="W57" s="3">
         <v>1200</v>
       </c>
       <c r="X57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3885,10 +4018,10 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
+        <v>500</v>
+      </c>
+      <c r="I58" s="3">
         <v>600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
@@ -3906,7 +4039,7 @@
         <v>500</v>
       </c>
       <c r="O58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
@@ -3915,285 +4048,297 @@
         <v>400</v>
       </c>
       <c r="R58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
       </c>
       <c r="T58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>200</v>
       </c>
       <c r="V58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="W58" s="3">
         <v>400</v>
       </c>
       <c r="X58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1000</v>
       </c>
       <c r="R59" s="3">
         <v>1000</v>
       </c>
       <c r="S59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E60" s="3">
         <v>5300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E61" s="3">
         <v>6400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="E62" s="3">
         <v>2100</v>
       </c>
       <c r="F62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2000</v>
       </c>
       <c r="J62" s="3">
         <v>2000</v>
       </c>
       <c r="K62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1700</v>
       </c>
       <c r="N62" s="3">
         <v>1700</v>
       </c>
       <c r="O62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P62" s="3">
         <v>1500</v>
-      </c>
-      <c r="P62" s="3">
-        <v>600</v>
       </c>
       <c r="Q62" s="3">
         <v>600</v>
@@ -4202,10 +4347,10 @@
         <v>600</v>
       </c>
       <c r="S62" s="3">
+        <v>600</v>
+      </c>
+      <c r="T62" s="3">
         <v>500</v>
-      </c>
-      <c r="T62" s="3">
-        <v>800</v>
       </c>
       <c r="U62" s="3">
         <v>800</v>
@@ -4214,16 +4359,19 @@
         <v>800</v>
       </c>
       <c r="W62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="X62" s="3">
         <v>700</v>
       </c>
       <c r="Y62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E66" s="3">
         <v>13900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E72" s="3">
         <v>6700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>4200</v>
       </c>
       <c r="N72" s="3">
         <v>4200</v>
       </c>
       <c r="O72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P72" s="3">
         <v>3800</v>
-      </c>
-      <c r="P72" s="3">
-        <v>3700</v>
       </c>
       <c r="Q72" s="3">
         <v>3700</v>
       </c>
       <c r="R72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S72" s="3">
         <v>3800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3200</v>
-      </c>
-      <c r="U72" s="3">
-        <v>3300</v>
       </c>
       <c r="V72" s="3">
         <v>3300</v>
       </c>
       <c r="W72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="X72" s="3">
         <v>3000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,46 +5283,49 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15500</v>
+        <v>15900</v>
       </c>
       <c r="E76" s="3">
         <v>15500</v>
       </c>
       <c r="F76" s="3">
+        <v>15500</v>
+      </c>
+      <c r="G76" s="3">
         <v>15200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>13200</v>
       </c>
       <c r="N76" s="3">
         <v>13200</v>
       </c>
       <c r="O76" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="P76" s="3">
         <v>12800</v>
@@ -5149,31 +5334,34 @@
         <v>12800</v>
       </c>
       <c r="R76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="S76" s="3">
         <v>12900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12300</v>
-      </c>
-      <c r="U76" s="3">
-        <v>12400</v>
       </c>
       <c r="V76" s="3">
         <v>12400</v>
       </c>
       <c r="W76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="X76" s="3">
         <v>12100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
-        <v>300</v>
-      </c>
       <c r="F81" s="3">
+        <v>300</v>
+      </c>
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
-        <v>300</v>
-      </c>
       <c r="J81" s="3">
+        <v>300</v>
+      </c>
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>300</v>
+      </c>
+      <c r="X81" s="3">
         <v>400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5462,14 +5660,14 @@
         <v>300</v>
       </c>
       <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
         <v>800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>500</v>
       </c>
-      <c r="S83" s="3">
-        <v>300</v>
-      </c>
       <c r="T83" s="3">
         <v>300</v>
       </c>
@@ -5477,19 +5675,22 @@
         <v>300</v>
       </c>
       <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3">
-        <v>300</v>
-      </c>
       <c r="X83" s="3">
         <v>300</v>
       </c>
       <c r="Y83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>800</v>
       </c>
       <c r="R89" s="3">
         <v>800</v>
       </c>
       <c r="S89" s="3">
+        <v>800</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>-300</v>
       </c>
       <c r="F94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-700</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-400</v>
       </c>
       <c r="V94" s="3">
         <v>-400</v>
       </c>
       <c r="W94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X94" s="3">
         <v>100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,22 +6778,25 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>-200</v>
       </c>
       <c r="F100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
@@ -6563,37 +6808,37 @@
         <v>-100</v>
       </c>
       <c r="K100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>2800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-100</v>
       </c>
       <c r="V100" s="3">
         <v>-100</v>
@@ -6607,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>300</v>
-      </c>
       <c r="I102" s="3">
+        <v>300</v>
+      </c>
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
-        <v>300</v>
-      </c>
       <c r="Q102" s="3">
+        <v>300</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>BWTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E8" s="3">
         <v>10500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>7600</v>
       </c>
       <c r="J8" s="3">
         <v>7600</v>
       </c>
       <c r="K8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="L8" s="3">
         <v>8900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6300</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>5900</v>
       </c>
       <c r="Z8" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E9" s="3">
         <v>6200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3800</v>
       </c>
       <c r="J9" s="3">
         <v>3800</v>
       </c>
       <c r="K9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L9" s="3">
         <v>4100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4000</v>
-      </c>
-      <c r="U9" s="3">
-        <v>3600</v>
       </c>
       <c r="V9" s="3">
         <v>3600</v>
       </c>
       <c r="W9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="X9" s="3">
         <v>4500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E10" s="3">
         <v>4300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3800</v>
       </c>
       <c r="J10" s="3">
         <v>3800</v>
       </c>
       <c r="K10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L10" s="3">
         <v>4800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3100</v>
       </c>
       <c r="N10" s="3">
         <v>3100</v>
       </c>
       <c r="O10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P10" s="3">
         <v>4200</v>
-      </c>
-      <c r="P10" s="3">
-        <v>3100</v>
       </c>
       <c r="Q10" s="3">
         <v>3100</v>
       </c>
       <c r="R10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S10" s="3">
         <v>9700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6700</v>
-      </c>
-      <c r="T10" s="3">
-        <v>2900</v>
       </c>
       <c r="U10" s="3">
         <v>2900</v>
       </c>
       <c r="V10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W10" s="3">
         <v>2800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,19 +1183,22 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1186,11 +1206,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1207,8 +1227,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1216,17 +1236,17 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1234,14 +1254,17 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,14 +1311,14 @@
         <v>300</v>
       </c>
       <c r="R15" s="3">
+        <v>300</v>
+      </c>
+      <c r="S15" s="3">
         <v>800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>500</v>
       </c>
-      <c r="T15" s="3">
-        <v>300</v>
-      </c>
       <c r="U15" s="3">
         <v>300</v>
       </c>
@@ -1303,19 +1326,22 @@
         <v>300</v>
       </c>
       <c r="W15" s="3">
+        <v>300</v>
+      </c>
+      <c r="X15" s="3">
         <v>200</v>
       </c>
-      <c r="X15" s="3">
-        <v>300</v>
-      </c>
       <c r="Y15" s="3">
         <v>300</v>
       </c>
       <c r="Z15" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E17" s="3">
         <v>10000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
-        <v>300</v>
-      </c>
       <c r="F18" s="3">
+        <v>300</v>
+      </c>
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
-      </c>
-      <c r="P18" s="3">
-        <v>100</v>
       </c>
       <c r="Q18" s="3">
         <v>100</v>
       </c>
       <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,13 +1548,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1530,17 +1564,17 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1548,11 +1582,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1560,111 +1594,117 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>300</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
-        <v>300</v>
-      </c>
       <c r="N21" s="3">
+        <v>300</v>
+      </c>
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1100</v>
       </c>
-      <c r="T21" s="3">
-        <v>300</v>
-      </c>
       <c r="U21" s="3">
+        <v>300</v>
+      </c>
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3">
-        <v>300</v>
-      </c>
       <c r="W21" s="3">
+        <v>300</v>
+      </c>
+      <c r="X21" s="3">
         <v>800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>100</v>
       </c>
-      <c r="Z21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1711,10 +1751,10 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1726,7 +1766,7 @@
         <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>300</v>
+      </c>
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>500</v>
       </c>
-      <c r="X23" s="3">
-        <v>300</v>
-      </c>
       <c r="Y23" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-100</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
-        <v>300</v>
-      </c>
       <c r="G26" s="3">
+        <v>300</v>
+      </c>
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
-        <v>300</v>
-      </c>
       <c r="K26" s="3">
+        <v>300</v>
+      </c>
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
-        <v>300</v>
-      </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
-        <v>300</v>
-      </c>
       <c r="G27" s="3">
+        <v>300</v>
+      </c>
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
-        <v>300</v>
-      </c>
       <c r="K27" s="3">
+        <v>300</v>
+      </c>
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
-        <v>300</v>
-      </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y27" s="3">
         <v>200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2207,8 +2268,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2225,38 +2286,41 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-200</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T29" s="3">
         <v>200</v>
       </c>
       <c r="U29" s="3">
+        <v>200</v>
+      </c>
+      <c r="V29" s="3">
         <v>-200</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>200</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,13 +2470,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2418,17 +2488,17 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2436,11 +2506,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2448,111 +2518,117 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
-        <v>300</v>
-      </c>
       <c r="G33" s="3">
+        <v>300</v>
+      </c>
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
-        <v>300</v>
-      </c>
       <c r="K33" s="3">
+        <v>300</v>
+      </c>
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y33" s="3">
         <v>400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
-        <v>300</v>
-      </c>
       <c r="G35" s="3">
+        <v>300</v>
+      </c>
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
-        <v>300</v>
-      </c>
       <c r="K35" s="3">
+        <v>300</v>
+      </c>
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y35" s="3">
         <v>400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E41" s="3">
         <v>5900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3600</v>
-      </c>
-      <c r="U41" s="3">
-        <v>4000</v>
       </c>
       <c r="V41" s="3">
         <v>4000</v>
       </c>
       <c r="W41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="X41" s="3">
         <v>4300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2950,13 +3040,13 @@
         <v>1200</v>
       </c>
       <c r="P42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q42" s="3">
         <v>1000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>900</v>
-      </c>
-      <c r="R42" s="3">
-        <v>1000</v>
       </c>
       <c r="S42" s="3">
         <v>1000</v>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3018,11 +3111,11 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -3056,111 +3149,117 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E44" s="3">
         <v>5900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>4200</v>
       </c>
       <c r="O44" s="3">
         <v>4200</v>
       </c>
       <c r="P44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>4400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
@@ -3181,7 +3280,7 @@
         <v>300</v>
       </c>
       <c r="S45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T45" s="3">
         <v>400</v>
@@ -3190,7 +3289,7 @@
         <v>400</v>
       </c>
       <c r="V45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W45" s="3">
         <v>300</v>
@@ -3199,102 +3298,108 @@
         <v>300</v>
       </c>
       <c r="Y45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z45" s="3">
         <v>400</v>
       </c>
-      <c r="Z45" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E46" s="3">
         <v>13400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12000</v>
-      </c>
-      <c r="L46" s="3">
-        <v>10300</v>
       </c>
       <c r="M46" s="3">
         <v>10300</v>
       </c>
       <c r="N46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="O46" s="3">
         <v>10500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>700</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
@@ -3311,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>800</v>
@@ -3326,7 +3431,7 @@
         <v>800</v>
       </c>
       <c r="R47" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="S47" s="3">
         <v>300</v>
@@ -3350,84 +3455,90 @@
         <v>300</v>
       </c>
       <c r="Z47" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E48" s="3">
         <v>13800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>14600</v>
       </c>
       <c r="K48" s="3">
         <v>14600</v>
       </c>
       <c r="L48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="M48" s="3">
         <v>14900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>14000</v>
       </c>
       <c r="P48" s="3">
         <v>14000</v>
       </c>
       <c r="Q48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="R48" s="3">
         <v>13000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>9800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>9600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>9500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>9600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3467,14 +3578,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3486,11 +3597,11 @@
         <v>0</v>
       </c>
       <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
         <v>100</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
       <c r="X49" s="3">
         <v>0</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3686,17 +3806,17 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>500</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E54" s="3">
         <v>27200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>25200</v>
       </c>
       <c r="M54" s="3">
         <v>25200</v>
       </c>
       <c r="N54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="O54" s="3">
         <v>25100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>20300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>20000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>19300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>18900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1000</v>
       </c>
       <c r="L57" s="3">
         <v>1000</v>
       </c>
       <c r="M57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1400</v>
       </c>
       <c r="P57" s="3">
         <v>1400</v>
       </c>
       <c r="Q57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
-      </c>
-      <c r="W57" s="3">
-        <v>1200</v>
       </c>
       <c r="X57" s="3">
         <v>1200</v>
       </c>
       <c r="Y57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z57" s="3">
         <v>600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4021,10 +4155,10 @@
         <v>500</v>
       </c>
       <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
         <v>600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
@@ -4042,7 +4176,7 @@
         <v>500</v>
       </c>
       <c r="P58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q58" s="3">
         <v>400</v>
@@ -4051,297 +4185,309 @@
         <v>400</v>
       </c>
       <c r="S58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
       </c>
       <c r="U58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
       </c>
       <c r="W58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="X58" s="3">
         <v>400</v>
       </c>
       <c r="Y58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1000</v>
       </c>
       <c r="S59" s="3">
         <v>1000</v>
       </c>
       <c r="T59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E61" s="3">
         <v>6300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2100</v>
       </c>
       <c r="F62" s="3">
         <v>2100</v>
       </c>
       <c r="G62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H62" s="3">
         <v>2200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2000</v>
       </c>
       <c r="K62" s="3">
         <v>2000</v>
       </c>
       <c r="L62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1900</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1700</v>
       </c>
       <c r="O62" s="3">
         <v>1700</v>
       </c>
       <c r="P62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>600</v>
       </c>
       <c r="R62" s="3">
         <v>600</v>
@@ -4350,10 +4496,10 @@
         <v>600</v>
       </c>
       <c r="T62" s="3">
+        <v>600</v>
+      </c>
+      <c r="U62" s="3">
         <v>500</v>
-      </c>
-      <c r="U62" s="3">
-        <v>800</v>
       </c>
       <c r="V62" s="3">
         <v>800</v>
@@ -4362,16 +4508,19 @@
         <v>800</v>
       </c>
       <c r="X62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Y62" s="3">
         <v>700</v>
       </c>
       <c r="Z62" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E66" s="3">
         <v>11300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E72" s="3">
         <v>7000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>4200</v>
       </c>
       <c r="O72" s="3">
         <v>4200</v>
       </c>
       <c r="P72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>3700</v>
       </c>
       <c r="R72" s="3">
         <v>3700</v>
       </c>
       <c r="S72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="T72" s="3">
         <v>3800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3200</v>
-      </c>
-      <c r="V72" s="3">
-        <v>3300</v>
       </c>
       <c r="W72" s="3">
         <v>3300</v>
       </c>
       <c r="X72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Y72" s="3">
         <v>3000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,49 +5469,52 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E76" s="3">
         <v>15900</v>
-      </c>
-      <c r="E76" s="3">
-        <v>15500</v>
       </c>
       <c r="F76" s="3">
         <v>15500</v>
       </c>
       <c r="G76" s="3">
+        <v>15500</v>
+      </c>
+      <c r="H76" s="3">
         <v>15200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>13200</v>
       </c>
       <c r="O76" s="3">
         <v>13200</v>
       </c>
       <c r="P76" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="Q76" s="3">
         <v>12800</v>
@@ -5337,31 +5523,34 @@
         <v>12800</v>
       </c>
       <c r="S76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="T76" s="3">
         <v>12900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12300</v>
-      </c>
-      <c r="V76" s="3">
-        <v>12400</v>
       </c>
       <c r="W76" s="3">
         <v>12400</v>
       </c>
       <c r="X76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Y76" s="3">
         <v>12100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
-        <v>300</v>
-      </c>
       <c r="G81" s="3">
+        <v>300</v>
+      </c>
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
-        <v>300</v>
-      </c>
       <c r="K81" s="3">
+        <v>300</v>
+      </c>
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y81" s="3">
         <v>400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5663,14 +5862,14 @@
         <v>300</v>
       </c>
       <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
         <v>800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>500</v>
       </c>
-      <c r="T83" s="3">
-        <v>300</v>
-      </c>
       <c r="U83" s="3">
         <v>300</v>
       </c>
@@ -5678,19 +5877,22 @@
         <v>300</v>
       </c>
       <c r="W83" s="3">
+        <v>300</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="X83" s="3">
-        <v>300</v>
-      </c>
       <c r="Y83" s="3">
         <v>300</v>
       </c>
       <c r="Z83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
-      </c>
-      <c r="R89" s="3">
-        <v>800</v>
       </c>
       <c r="S89" s="3">
         <v>800</v>
       </c>
       <c r="T89" s="3">
+        <v>800</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-300</v>
       </c>
       <c r="F94" s="3">
         <v>-300</v>
       </c>
       <c r="G94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
       <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-700</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-400</v>
       </c>
       <c r="W94" s="3">
         <v>-400</v>
       </c>
       <c r="X94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y94" s="3">
         <v>100</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6790,16 +7036,16 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>-200</v>
       </c>
       <c r="G100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>-100</v>
@@ -6811,37 +7057,37 @@
         <v>-100</v>
       </c>
       <c r="L100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>2800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-100</v>
       </c>
       <c r="W100" s="3">
         <v>-100</v>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>300</v>
-      </c>
       <c r="J102" s="3">
+        <v>300</v>
+      </c>
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
-        <v>300</v>
-      </c>
       <c r="R102" s="3">
+        <v>300</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>BWTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E8" s="3">
         <v>12900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>7600</v>
       </c>
       <c r="K8" s="3">
         <v>7600</v>
       </c>
       <c r="L8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="M8" s="3">
         <v>8900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6300</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>5900</v>
       </c>
       <c r="AA8" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E9" s="3">
         <v>7300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3800</v>
       </c>
       <c r="K9" s="3">
         <v>3800</v>
       </c>
       <c r="L9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M9" s="3">
         <v>4100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4000</v>
-      </c>
-      <c r="V9" s="3">
-        <v>3600</v>
       </c>
       <c r="W9" s="3">
         <v>3600</v>
       </c>
       <c r="X9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Y9" s="3">
         <v>4500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3800</v>
       </c>
       <c r="K10" s="3">
         <v>3800</v>
       </c>
       <c r="L10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M10" s="3">
         <v>4800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3100</v>
       </c>
       <c r="O10" s="3">
         <v>3100</v>
       </c>
       <c r="P10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>3100</v>
       </c>
       <c r="R10" s="3">
         <v>3100</v>
       </c>
       <c r="S10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T10" s="3">
         <v>9700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6700</v>
-      </c>
-      <c r="U10" s="3">
-        <v>2900</v>
       </c>
       <c r="V10" s="3">
         <v>2900</v>
       </c>
       <c r="W10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X10" s="3">
         <v>2800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,11 +1217,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1209,11 +1229,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1230,8 +1250,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1239,17 +1259,17 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
         <v>100</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,14 +1337,14 @@
         <v>300</v>
       </c>
       <c r="S15" s="3">
+        <v>300</v>
+      </c>
+      <c r="T15" s="3">
         <v>800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>500</v>
       </c>
-      <c r="U15" s="3">
-        <v>300</v>
-      </c>
       <c r="V15" s="3">
         <v>300</v>
       </c>
@@ -1329,19 +1352,22 @@
         <v>300</v>
       </c>
       <c r="X15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y15" s="3">
         <v>200</v>
       </c>
-      <c r="Y15" s="3">
-        <v>300</v>
-      </c>
       <c r="Z15" s="3">
         <v>300</v>
       </c>
       <c r="AA15" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
-        <v>300</v>
-      </c>
       <c r="G18" s="3">
+        <v>300</v>
+      </c>
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>600</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>100</v>
       </c>
       <c r="R18" s="3">
         <v>100</v>
       </c>
       <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,17 +1582,18 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1567,17 +1601,17 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1585,11 +1619,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1597,114 +1631,120 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>300</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
-        <v>300</v>
-      </c>
       <c r="O21" s="3">
+        <v>300</v>
+      </c>
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1100</v>
       </c>
-      <c r="U21" s="3">
-        <v>300</v>
-      </c>
       <c r="V21" s="3">
+        <v>300</v>
+      </c>
+      <c r="W21" s="3">
         <v>500</v>
       </c>
-      <c r="W21" s="3">
-        <v>300</v>
-      </c>
       <c r="X21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y21" s="3">
         <v>800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>100</v>
       </c>
-      <c r="AA21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1754,10 +1794,10 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
@@ -1769,7 +1809,7 @@
         <v>100</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>300</v>
+      </c>
+      <c r="U23" s="3">
         <v>500</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>200</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>500</v>
       </c>
-      <c r="Y23" s="3">
-        <v>300</v>
-      </c>
       <c r="Z23" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-100</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
-        <v>300</v>
-      </c>
       <c r="F26" s="3">
+        <v>300</v>
+      </c>
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
-        <v>300</v>
-      </c>
       <c r="H26" s="3">
+        <v>300</v>
+      </c>
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>300</v>
-      </c>
       <c r="L26" s="3">
+        <v>300</v>
+      </c>
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
-        <v>300</v>
-      </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z26" s="3">
         <v>200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
-        <v>300</v>
-      </c>
       <c r="F27" s="3">
+        <v>300</v>
+      </c>
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
-        <v>300</v>
-      </c>
       <c r="H27" s="3">
+        <v>300</v>
+      </c>
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>300</v>
-      </c>
       <c r="L27" s="3">
+        <v>300</v>
+      </c>
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
-        <v>300</v>
-      </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2271,8 +2332,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2289,38 +2350,41 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-200</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U29" s="3">
         <v>200</v>
       </c>
       <c r="V29" s="3">
+        <v>200</v>
+      </c>
+      <c r="W29" s="3">
         <v>-200</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>200</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,17 +2540,20 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2491,17 +2561,17 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2509,11 +2579,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2521,114 +2591,120 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
-        <v>300</v>
-      </c>
       <c r="F33" s="3">
+        <v>300</v>
+      </c>
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
-        <v>300</v>
-      </c>
       <c r="H33" s="3">
+        <v>300</v>
+      </c>
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>300</v>
-      </c>
       <c r="L33" s="3">
+        <v>300</v>
+      </c>
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
-        <v>300</v>
-      </c>
       <c r="F35" s="3">
+        <v>300</v>
+      </c>
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
-        <v>300</v>
-      </c>
       <c r="H35" s="3">
+        <v>300</v>
+      </c>
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>300</v>
-      </c>
       <c r="L35" s="3">
+        <v>300</v>
+      </c>
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E41" s="3">
         <v>7800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3600</v>
-      </c>
-      <c r="V41" s="3">
-        <v>4000</v>
       </c>
       <c r="W41" s="3">
         <v>4000</v>
       </c>
       <c r="X41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Y41" s="3">
         <v>4300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3043,13 +3133,13 @@
         <v>1200</v>
       </c>
       <c r="Q42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R42" s="3">
         <v>1000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>900</v>
-      </c>
-      <c r="S42" s="3">
-        <v>1000</v>
       </c>
       <c r="T42" s="3">
         <v>1000</v>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3114,11 +3207,11 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
@@ -3152,117 +3245,123 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E44" s="3">
         <v>5800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4000</v>
-      </c>
-      <c r="O44" s="3">
-        <v>4200</v>
       </c>
       <c r="P44" s="3">
         <v>4200</v>
       </c>
       <c r="Q44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R44" s="3">
         <v>4400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>300</v>
-      </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
@@ -3283,7 +3382,7 @@
         <v>300</v>
       </c>
       <c r="T45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U45" s="3">
         <v>400</v>
@@ -3292,7 +3391,7 @@
         <v>400</v>
       </c>
       <c r="W45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X45" s="3">
         <v>300</v>
@@ -3301,90 +3400,96 @@
         <v>300</v>
       </c>
       <c r="Z45" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA45" s="3">
         <v>400</v>
       </c>
-      <c r="AA45" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E46" s="3">
         <v>15100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>10300</v>
       </c>
       <c r="N46" s="3">
         <v>10300</v>
       </c>
       <c r="O46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="P46" s="3">
         <v>10500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3392,17 +3497,17 @@
         <v>300</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>700</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
@@ -3419,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>800</v>
@@ -3434,7 +3539,7 @@
         <v>800</v>
       </c>
       <c r="S47" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="T47" s="3">
         <v>300</v>
@@ -3458,10 +3563,13 @@
         <v>300</v>
       </c>
       <c r="AA47" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3469,76 +3577,79 @@
         <v>12900</v>
       </c>
       <c r="E48" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F48" s="3">
         <v>13800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>14600</v>
       </c>
       <c r="L48" s="3">
         <v>14600</v>
       </c>
       <c r="M48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="N48" s="3">
         <v>14900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>14000</v>
       </c>
       <c r="Q48" s="3">
         <v>14000</v>
       </c>
       <c r="R48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="S48" s="3">
         <v>13000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>9800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>9600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>9500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>9600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3581,14 +3692,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3600,11 +3711,11 @@
         <v>0</v>
       </c>
       <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
         <v>100</v>
       </c>
-      <c r="X49" s="3">
-        <v>0</v>
-      </c>
       <c r="Y49" s="3">
         <v>0</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3809,17 +3929,17 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>500</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E54" s="3">
         <v>28400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>25200</v>
       </c>
       <c r="N54" s="3">
         <v>25200</v>
       </c>
       <c r="O54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="P54" s="3">
         <v>25100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>22100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>20300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>19700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>20000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>19300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>18900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1000</v>
       </c>
       <c r="M57" s="3">
         <v>1000</v>
       </c>
       <c r="N57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1400</v>
       </c>
       <c r="Q57" s="3">
         <v>1400</v>
       </c>
       <c r="R57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
-      </c>
-      <c r="X57" s="3">
-        <v>1200</v>
       </c>
       <c r="Y57" s="3">
         <v>1200</v>
       </c>
       <c r="Z57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA57" s="3">
         <v>600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4158,10 +4292,10 @@
         <v>500</v>
       </c>
       <c r="J58" s="3">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3">
         <v>600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
@@ -4179,7 +4313,7 @@
         <v>500</v>
       </c>
       <c r="Q58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R58" s="3">
         <v>400</v>
@@ -4188,262 +4322,274 @@
         <v>400</v>
       </c>
       <c r="T58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
       </c>
       <c r="V58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>200</v>
       </c>
       <c r="X58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Y58" s="3">
         <v>400</v>
       </c>
       <c r="Z58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AA58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1000</v>
       </c>
       <c r="T59" s="3">
         <v>1000</v>
       </c>
       <c r="U59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E61" s="3">
         <v>6200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,46 +4597,46 @@
         <v>1800</v>
       </c>
       <c r="E62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2100</v>
       </c>
       <c r="G62" s="3">
         <v>2100</v>
       </c>
       <c r="H62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2000</v>
       </c>
       <c r="L62" s="3">
         <v>2000</v>
       </c>
       <c r="M62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1900</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1700</v>
       </c>
       <c r="P62" s="3">
         <v>1700</v>
       </c>
       <c r="Q62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R62" s="3">
         <v>1500</v>
-      </c>
-      <c r="R62" s="3">
-        <v>600</v>
       </c>
       <c r="S62" s="3">
         <v>600</v>
@@ -4499,10 +4645,10 @@
         <v>600</v>
       </c>
       <c r="U62" s="3">
+        <v>600</v>
+      </c>
+      <c r="V62" s="3">
         <v>500</v>
-      </c>
-      <c r="V62" s="3">
-        <v>800</v>
       </c>
       <c r="W62" s="3">
         <v>800</v>
@@ -4511,16 +4657,19 @@
         <v>800</v>
       </c>
       <c r="Y62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Z62" s="3">
         <v>700</v>
       </c>
       <c r="AA62" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E66" s="3">
         <v>11600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E72" s="3">
         <v>7900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>4200</v>
       </c>
       <c r="P72" s="3">
         <v>4200</v>
       </c>
       <c r="Q72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R72" s="3">
         <v>3800</v>
-      </c>
-      <c r="R72" s="3">
-        <v>3700</v>
       </c>
       <c r="S72" s="3">
         <v>3700</v>
       </c>
       <c r="T72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="U72" s="3">
         <v>3800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3200</v>
-      </c>
-      <c r="W72" s="3">
-        <v>3300</v>
       </c>
       <c r="X72" s="3">
         <v>3300</v>
       </c>
       <c r="Y72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Z72" s="3">
         <v>3000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5481,43 +5667,43 @@
         <v>16700</v>
       </c>
       <c r="E76" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F76" s="3">
         <v>15900</v>
-      </c>
-      <c r="F76" s="3">
-        <v>15500</v>
       </c>
       <c r="G76" s="3">
         <v>15500</v>
       </c>
       <c r="H76" s="3">
+        <v>15500</v>
+      </c>
+      <c r="I76" s="3">
         <v>15200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>13200</v>
       </c>
       <c r="P76" s="3">
         <v>13200</v>
       </c>
       <c r="Q76" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="R76" s="3">
         <v>12800</v>
@@ -5526,31 +5712,34 @@
         <v>12800</v>
       </c>
       <c r="T76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="U76" s="3">
         <v>12900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12300</v>
-      </c>
-      <c r="W76" s="3">
-        <v>12400</v>
       </c>
       <c r="X76" s="3">
         <v>12400</v>
       </c>
       <c r="Y76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Z76" s="3">
         <v>12100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
-        <v>300</v>
-      </c>
       <c r="F81" s="3">
+        <v>300</v>
+      </c>
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
-        <v>300</v>
-      </c>
       <c r="H81" s="3">
+        <v>300</v>
+      </c>
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>300</v>
-      </c>
       <c r="L81" s="3">
+        <v>300</v>
+      </c>
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5865,14 +6064,14 @@
         <v>300</v>
       </c>
       <c r="S83" s="3">
+        <v>300</v>
+      </c>
+      <c r="T83" s="3">
         <v>800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>500</v>
       </c>
-      <c r="U83" s="3">
-        <v>300</v>
-      </c>
       <c r="V83" s="3">
         <v>300</v>
       </c>
@@ -5880,19 +6079,22 @@
         <v>300</v>
       </c>
       <c r="X83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3">
-        <v>300</v>
-      </c>
       <c r="Z83" s="3">
         <v>300</v>
       </c>
       <c r="AA83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
-      </c>
-      <c r="S89" s="3">
-        <v>800</v>
       </c>
       <c r="T89" s="3">
         <v>800</v>
       </c>
       <c r="U89" s="3">
+        <v>800</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6391,76 +6612,79 @@
         <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
       </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-300</v>
       </c>
       <c r="G94" s="3">
         <v>-300</v>
       </c>
       <c r="H94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
       </c>
       <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-700</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-400</v>
       </c>
       <c r="X94" s="3">
         <v>-400</v>
       </c>
       <c r="Y94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z94" s="3">
         <v>100</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,28 +7270,31 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>-200</v>
       </c>
       <c r="H100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-100</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
@@ -7060,37 +7306,37 @@
         <v>-100</v>
       </c>
       <c r="M100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>2800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
-      </c>
-      <c r="W100" s="3">
-        <v>-100</v>
       </c>
       <c r="X100" s="3">
         <v>-100</v>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>300</v>
-      </c>
       <c r="K102" s="3">
+        <v>300</v>
+      </c>
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
-        <v>300</v>
-      </c>
       <c r="S102" s="3">
+        <v>300</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>BWTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,279 +665,289 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E8" s="3">
         <v>9100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>7600</v>
       </c>
       <c r="L8" s="3">
         <v>7600</v>
       </c>
       <c r="M8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="N8" s="3">
         <v>8900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>22900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>16000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6300</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>5900</v>
       </c>
       <c r="AB8" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E9" s="3">
         <v>5100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3800</v>
       </c>
       <c r="L9" s="3">
         <v>3800</v>
       </c>
       <c r="M9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N9" s="3">
         <v>4100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4000</v>
-      </c>
-      <c r="W9" s="3">
-        <v>3600</v>
       </c>
       <c r="X9" s="3">
         <v>3600</v>
       </c>
       <c r="Y9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Z9" s="3">
         <v>4500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,79 +955,82 @@
         <v>4000</v>
       </c>
       <c r="E10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F10" s="3">
         <v>5600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4400</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3800</v>
       </c>
       <c r="L10" s="3">
         <v>3800</v>
       </c>
       <c r="M10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N10" s="3">
         <v>4800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>3100</v>
       </c>
       <c r="P10" s="3">
         <v>3100</v>
       </c>
       <c r="Q10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R10" s="3">
         <v>4200</v>
-      </c>
-      <c r="R10" s="3">
-        <v>3100</v>
       </c>
       <c r="S10" s="3">
         <v>3100</v>
       </c>
       <c r="T10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U10" s="3">
         <v>9700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6700</v>
-      </c>
-      <c r="V10" s="3">
-        <v>2900</v>
       </c>
       <c r="W10" s="3">
         <v>2900</v>
       </c>
       <c r="X10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1220,11 +1240,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1232,11 +1252,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1253,8 +1273,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1262,17 +1282,17 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
@@ -1280,14 +1300,17 @@
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="3">
         <v>100</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,14 +1363,14 @@
         <v>300</v>
       </c>
       <c r="T15" s="3">
+        <v>300</v>
+      </c>
+      <c r="U15" s="3">
         <v>800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>500</v>
       </c>
-      <c r="V15" s="3">
-        <v>300</v>
-      </c>
       <c r="W15" s="3">
         <v>300</v>
       </c>
@@ -1355,19 +1378,22 @@
         <v>300</v>
       </c>
       <c r="Y15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z15" s="3">
         <v>200</v>
       </c>
-      <c r="Z15" s="3">
-        <v>300</v>
-      </c>
       <c r="AA15" s="3">
         <v>300</v>
       </c>
       <c r="AB15" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E17" s="3">
         <v>9000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
-        <v>300</v>
-      </c>
       <c r="H18" s="3">
+        <v>300</v>
+      </c>
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>100</v>
       </c>
       <c r="S18" s="3">
         <v>100</v>
       </c>
       <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,11 +1626,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1604,17 +1638,17 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1622,11 +1656,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1634,117 +1668,123 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
-        <v>300</v>
-      </c>
       <c r="P21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1100</v>
       </c>
-      <c r="V21" s="3">
-        <v>300</v>
-      </c>
       <c r="W21" s="3">
+        <v>300</v>
+      </c>
+      <c r="X21" s="3">
         <v>500</v>
       </c>
-      <c r="X21" s="3">
-        <v>300</v>
-      </c>
       <c r="Y21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z21" s="3">
         <v>800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>100</v>
       </c>
-      <c r="AB21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1797,10 +1837,10 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
@@ -1812,7 +1852,7 @@
         <v>100</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1823,88 +1863,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>300</v>
+      </c>
+      <c r="V23" s="3">
         <v>500</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>200</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>500</v>
       </c>
-      <c r="Z23" s="3">
-        <v>300</v>
-      </c>
       <c r="AA23" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1912,79 +1958,82 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>100</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-100</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
-        <v>300</v>
-      </c>
       <c r="G26" s="3">
+        <v>300</v>
+      </c>
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
-        <v>300</v>
-      </c>
       <c r="I26" s="3">
+        <v>300</v>
+      </c>
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
-        <v>300</v>
-      </c>
       <c r="M26" s="3">
+        <v>300</v>
+      </c>
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
-        <v>300</v>
-      </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA26" s="3">
         <v>200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
-        <v>300</v>
-      </c>
       <c r="G27" s="3">
+        <v>300</v>
+      </c>
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
-        <v>300</v>
-      </c>
       <c r="I27" s="3">
+        <v>300</v>
+      </c>
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
-        <v>300</v>
-      </c>
       <c r="M27" s="3">
+        <v>300</v>
+      </c>
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
-        <v>300</v>
-      </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA27" s="3">
         <v>200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2335,8 +2396,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2353,38 +2414,41 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-200</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V29" s="3">
         <v>200</v>
       </c>
       <c r="W29" s="3">
+        <v>200</v>
+      </c>
+      <c r="X29" s="3">
         <v>-200</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>200</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,11 +2622,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2564,17 +2634,17 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2582,11 +2652,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2594,117 +2664,123 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
-        <v>300</v>
-      </c>
       <c r="G33" s="3">
+        <v>300</v>
+      </c>
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
-        <v>300</v>
-      </c>
       <c r="I33" s="3">
+        <v>300</v>
+      </c>
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
-        <v>300</v>
-      </c>
       <c r="M33" s="3">
+        <v>300</v>
+      </c>
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA33" s="3">
         <v>400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
-        <v>300</v>
-      </c>
       <c r="G35" s="3">
+        <v>300</v>
+      </c>
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
-        <v>300</v>
-      </c>
       <c r="I35" s="3">
+        <v>300</v>
+      </c>
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
-        <v>300</v>
-      </c>
       <c r="M35" s="3">
+        <v>300</v>
+      </c>
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA35" s="3">
         <v>400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3094,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3017,79 +3104,82 @@
         <v>7300</v>
       </c>
       <c r="E41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F41" s="3">
         <v>7800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3600</v>
-      </c>
-      <c r="W41" s="3">
-        <v>4000</v>
       </c>
       <c r="X41" s="3">
         <v>4000</v>
       </c>
       <c r="Y41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Z41" s="3">
         <v>4300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3136,13 +3226,13 @@
         <v>1200</v>
       </c>
       <c r="R42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S42" s="3">
         <v>1000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>900</v>
-      </c>
-      <c r="T42" s="3">
-        <v>1000</v>
       </c>
       <c r="U42" s="3">
         <v>1000</v>
@@ -3168,8 +3258,11 @@
       <c r="AB42" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3210,11 +3303,11 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3257,114 +3353,117 @@
         <v>5700</v>
       </c>
       <c r="E44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F44" s="3">
         <v>5800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4000</v>
-      </c>
-      <c r="P44" s="3">
-        <v>4200</v>
       </c>
       <c r="Q44" s="3">
         <v>4200</v>
       </c>
       <c r="R44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="S44" s="3">
         <v>4400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>300</v>
-      </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
@@ -3385,7 +3484,7 @@
         <v>300</v>
       </c>
       <c r="U45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V45" s="3">
         <v>400</v>
@@ -3394,7 +3493,7 @@
         <v>400</v>
       </c>
       <c r="X45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y45" s="3">
         <v>300</v>
@@ -3403,114 +3502,120 @@
         <v>300</v>
       </c>
       <c r="AA45" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB45" s="3">
         <v>400</v>
       </c>
-      <c r="AB45" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E46" s="3">
         <v>14600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12000</v>
-      </c>
-      <c r="N46" s="3">
-        <v>10300</v>
       </c>
       <c r="O46" s="3">
         <v>10300</v>
       </c>
       <c r="P46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>10500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>700</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
@@ -3527,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>800</v>
@@ -3542,7 +3647,7 @@
         <v>800</v>
       </c>
       <c r="T47" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="U47" s="3">
         <v>300</v>
@@ -3566,90 +3671,96 @@
         <v>300</v>
       </c>
       <c r="AB47" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="E48" s="3">
         <v>12900</v>
       </c>
       <c r="F48" s="3">
+        <v>12900</v>
+      </c>
+      <c r="G48" s="3">
         <v>13800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>14600</v>
       </c>
       <c r="M48" s="3">
         <v>14600</v>
       </c>
       <c r="N48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="O48" s="3">
         <v>14900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13700</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>14000</v>
       </c>
       <c r="R48" s="3">
         <v>14000</v>
       </c>
       <c r="S48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="T48" s="3">
         <v>13000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>10500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>9800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>9600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>9500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>9600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3695,14 +3806,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3714,11 +3825,11 @@
         <v>0</v>
       </c>
       <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
         <v>100</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
-      </c>
       <c r="Z49" s="3">
         <v>0</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3932,17 +4052,17 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
         <v>500</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E54" s="3">
         <v>27900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>25200</v>
       </c>
       <c r="O54" s="3">
         <v>25200</v>
       </c>
       <c r="P54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>25100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>24400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>23700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>22100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>20300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>19700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>20000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>19300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>18900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4318,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1000</v>
       </c>
       <c r="N57" s="3">
         <v>1000</v>
       </c>
       <c r="O57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1400</v>
       </c>
       <c r="R57" s="3">
         <v>1400</v>
       </c>
       <c r="S57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>800</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>1200</v>
       </c>
       <c r="Z57" s="3">
         <v>1200</v>
       </c>
       <c r="AA57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB57" s="3">
         <v>600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4295,10 +4429,10 @@
         <v>500</v>
       </c>
       <c r="K58" s="3">
+        <v>500</v>
+      </c>
+      <c r="L58" s="3">
         <v>600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>500</v>
       </c>
       <c r="M58" s="3">
         <v>500</v>
@@ -4316,7 +4450,7 @@
         <v>500</v>
       </c>
       <c r="R58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S58" s="3">
         <v>400</v>
@@ -4325,321 +4459,333 @@
         <v>400</v>
       </c>
       <c r="U58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
       </c>
       <c r="W58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X58" s="3">
         <v>200</v>
       </c>
       <c r="Y58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Z58" s="3">
         <v>400</v>
       </c>
       <c r="AA58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AB58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1000</v>
       </c>
       <c r="U59" s="3">
         <v>1000</v>
       </c>
       <c r="V59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E62" s="3">
         <v>1800</v>
       </c>
       <c r="F62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G62" s="3">
         <v>1700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2100</v>
       </c>
       <c r="H62" s="3">
         <v>2100</v>
       </c>
       <c r="I62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J62" s="3">
         <v>2200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2000</v>
       </c>
       <c r="M62" s="3">
         <v>2000</v>
       </c>
       <c r="N62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1900</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1700</v>
       </c>
       <c r="Q62" s="3">
         <v>1700</v>
       </c>
       <c r="R62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S62" s="3">
         <v>1500</v>
-      </c>
-      <c r="S62" s="3">
-        <v>600</v>
       </c>
       <c r="T62" s="3">
         <v>600</v>
@@ -4648,10 +4794,10 @@
         <v>600</v>
       </c>
       <c r="V62" s="3">
+        <v>600</v>
+      </c>
+      <c r="W62" s="3">
         <v>500</v>
-      </c>
-      <c r="W62" s="3">
-        <v>800</v>
       </c>
       <c r="X62" s="3">
         <v>800</v>
@@ -4660,16 +4806,19 @@
         <v>800</v>
       </c>
       <c r="Z62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AA62" s="3">
         <v>700</v>
       </c>
       <c r="AB62" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E66" s="3">
         <v>11300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E72" s="3">
         <v>7800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>4200</v>
       </c>
       <c r="Q72" s="3">
         <v>4200</v>
       </c>
       <c r="R72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="S72" s="3">
         <v>3800</v>
-      </c>
-      <c r="S72" s="3">
-        <v>3700</v>
       </c>
       <c r="T72" s="3">
         <v>3700</v>
       </c>
       <c r="U72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="V72" s="3">
         <v>3800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3200</v>
-      </c>
-      <c r="X72" s="3">
-        <v>3300</v>
       </c>
       <c r="Y72" s="3">
         <v>3300</v>
       </c>
       <c r="Z72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="AA72" s="3">
         <v>3000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,55 +5841,58 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="E76" s="3">
         <v>16700</v>
       </c>
       <c r="F76" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G76" s="3">
         <v>15900</v>
-      </c>
-      <c r="G76" s="3">
-        <v>15500</v>
       </c>
       <c r="H76" s="3">
         <v>15500</v>
       </c>
       <c r="I76" s="3">
+        <v>15500</v>
+      </c>
+      <c r="J76" s="3">
         <v>15200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>13200</v>
       </c>
       <c r="Q76" s="3">
         <v>13200</v>
       </c>
       <c r="R76" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="S76" s="3">
         <v>12800</v>
@@ -5715,31 +5901,34 @@
         <v>12800</v>
       </c>
       <c r="U76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="V76" s="3">
         <v>12900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12300</v>
-      </c>
-      <c r="X76" s="3">
-        <v>12400</v>
       </c>
       <c r="Y76" s="3">
         <v>12400</v>
       </c>
       <c r="Z76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="AA76" s="3">
         <v>12100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
-        <v>300</v>
-      </c>
       <c r="G81" s="3">
+        <v>300</v>
+      </c>
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
-        <v>300</v>
-      </c>
       <c r="I81" s="3">
+        <v>300</v>
+      </c>
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
-        <v>300</v>
-      </c>
       <c r="M81" s="3">
+        <v>300</v>
+      </c>
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA81" s="3">
         <v>400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6067,14 +6266,14 @@
         <v>300</v>
       </c>
       <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3">
         <v>800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>500</v>
       </c>
-      <c r="V83" s="3">
-        <v>300</v>
-      </c>
       <c r="W83" s="3">
         <v>300</v>
       </c>
@@ -6082,19 +6281,22 @@
         <v>300</v>
       </c>
       <c r="Y83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
-      <c r="Z83" s="3">
-        <v>300</v>
-      </c>
       <c r="AA83" s="3">
         <v>300</v>
       </c>
       <c r="AB83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
-      </c>
-      <c r="T89" s="3">
-        <v>800</v>
       </c>
       <c r="U89" s="3">
         <v>800</v>
       </c>
       <c r="V89" s="3">
+        <v>800</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
       </c>
       <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-300</v>
       </c>
       <c r="H94" s="3">
         <v>-300</v>
       </c>
       <c r="I94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
       </c>
       <c r="K94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-700</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-400</v>
       </c>
       <c r="Y94" s="3">
         <v>-400</v>
       </c>
       <c r="Z94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA94" s="3">
         <v>100</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,31 +7516,34 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>-200</v>
       </c>
       <c r="I100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-100</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
@@ -7309,37 +7555,37 @@
         <v>-100</v>
       </c>
       <c r="N100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>2800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>700</v>
-      </c>
-      <c r="X100" s="3">
-        <v>-100</v>
       </c>
       <c r="Y100" s="3">
         <v>-100</v>
@@ -7353,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>300</v>
-      </c>
       <c r="L102" s="3">
+        <v>300</v>
+      </c>
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
-        <v>300</v>
-      </c>
       <c r="T102" s="3">
+        <v>300</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>BWTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,384 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E8" s="3">
         <v>9200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>7600</v>
       </c>
       <c r="M8" s="3">
         <v>7600</v>
       </c>
       <c r="N8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="O8" s="3">
         <v>8900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>22900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>16000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6300</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>5900</v>
       </c>
       <c r="AC8" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E9" s="3">
         <v>5200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>3800</v>
       </c>
       <c r="M9" s="3">
         <v>3800</v>
       </c>
       <c r="N9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O9" s="3">
         <v>4100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4000</v>
-      </c>
-      <c r="X9" s="3">
-        <v>3600</v>
       </c>
       <c r="Y9" s="3">
         <v>3600</v>
       </c>
       <c r="Z9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AA9" s="3">
         <v>4500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E10" s="3">
         <v>4000</v>
       </c>
       <c r="F10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G10" s="3">
         <v>5600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>3800</v>
       </c>
       <c r="M10" s="3">
         <v>3800</v>
       </c>
       <c r="N10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O10" s="3">
         <v>4800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>3100</v>
       </c>
       <c r="Q10" s="3">
         <v>3100</v>
       </c>
       <c r="R10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S10" s="3">
         <v>4200</v>
-      </c>
-      <c r="S10" s="3">
-        <v>3100</v>
       </c>
       <c r="T10" s="3">
         <v>3100</v>
       </c>
       <c r="U10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V10" s="3">
         <v>9700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6700</v>
-      </c>
-      <c r="W10" s="3">
-        <v>2900</v>
       </c>
       <c r="X10" s="3">
         <v>2900</v>
       </c>
       <c r="Y10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Z10" s="3">
         <v>2800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1243,11 +1262,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1255,11 +1274,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1276,8 +1295,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1285,17 +1304,17 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1303,14 +1322,17 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="3">
         <v>100</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,14 +1388,14 @@
         <v>300</v>
       </c>
       <c r="U15" s="3">
+        <v>300</v>
+      </c>
+      <c r="V15" s="3">
         <v>800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>500</v>
       </c>
-      <c r="W15" s="3">
-        <v>300</v>
-      </c>
       <c r="X15" s="3">
         <v>300</v>
       </c>
@@ -1381,19 +1403,22 @@
         <v>300</v>
       </c>
       <c r="Z15" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA15" s="3">
         <v>200</v>
       </c>
-      <c r="AA15" s="3">
-        <v>300</v>
-      </c>
       <c r="AB15" s="3">
         <v>300</v>
       </c>
       <c r="AC15" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,8 +1445,9 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1429,165 +1455,171 @@
         <v>9300</v>
       </c>
       <c r="E17" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F17" s="3">
         <v>9000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>22500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
-        <v>300</v>
-      </c>
       <c r="I18" s="3">
+        <v>300</v>
+      </c>
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>600</v>
-      </c>
-      <c r="S18" s="3">
-        <v>100</v>
       </c>
       <c r="T18" s="3">
         <v>100</v>
       </c>
       <c r="U18" s="3">
+        <v>100</v>
+      </c>
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>100</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1629,11 +1662,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1641,17 +1674,17 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1659,11 +1692,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1671,120 +1704,126 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
-        <v>300</v>
-      </c>
       <c r="Q21" s="3">
+        <v>300</v>
+      </c>
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1100</v>
       </c>
-      <c r="W21" s="3">
-        <v>300</v>
-      </c>
       <c r="X21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y21" s="3">
         <v>500</v>
       </c>
-      <c r="Y21" s="3">
-        <v>300</v>
-      </c>
       <c r="Z21" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA21" s="3">
         <v>800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>100</v>
       </c>
-      <c r="AC21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1840,10 +1879,10 @@
         <v>100</v>
       </c>
       <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
@@ -1855,7 +1894,7 @@
         <v>100</v>
       </c>
       <c r="Z22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1866,91 +1905,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>300</v>
+      </c>
+      <c r="W23" s="3">
         <v>500</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>500</v>
       </c>
-      <c r="AA23" s="3">
-        <v>300</v>
-      </c>
       <c r="AB23" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1961,79 +2006,82 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>100</v>
       </c>
       <c r="W24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-100</v>
       </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
-        <v>300</v>
-      </c>
       <c r="H26" s="3">
+        <v>300</v>
+      </c>
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
-        <v>300</v>
-      </c>
       <c r="J26" s="3">
+        <v>300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
-        <v>300</v>
-      </c>
       <c r="N26" s="3">
+        <v>300</v>
+      </c>
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
-        <v>300</v>
-      </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB26" s="3">
         <v>200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
-        <v>300</v>
-      </c>
       <c r="H27" s="3">
+        <v>300</v>
+      </c>
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
-        <v>300</v>
-      </c>
       <c r="J27" s="3">
+        <v>300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
-        <v>300</v>
-      </c>
       <c r="N27" s="3">
+        <v>300</v>
+      </c>
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
-        <v>300</v>
-      </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB27" s="3">
         <v>200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2399,8 +2459,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2417,38 +2477,41 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-200</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W29" s="3">
         <v>200</v>
       </c>
       <c r="X29" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-200</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>200</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2625,11 +2694,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2637,17 +2706,17 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2655,11 +2724,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2667,120 +2736,126 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-300</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
-        <v>300</v>
-      </c>
       <c r="H33" s="3">
+        <v>300</v>
+      </c>
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
-        <v>300</v>
-      </c>
       <c r="J33" s="3">
+        <v>300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
-        <v>300</v>
-      </c>
       <c r="N33" s="3">
+        <v>300</v>
+      </c>
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB33" s="3">
         <v>400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
-        <v>300</v>
-      </c>
       <c r="H35" s="3">
+        <v>300</v>
+      </c>
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
-        <v>300</v>
-      </c>
       <c r="J35" s="3">
+        <v>300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
-        <v>300</v>
-      </c>
       <c r="N35" s="3">
+        <v>300</v>
+      </c>
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB35" s="3">
         <v>400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7300</v>
+        <v>6300</v>
       </c>
       <c r="E41" s="3">
         <v>7300</v>
       </c>
       <c r="F41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G41" s="3">
         <v>7800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3600</v>
-      </c>
-      <c r="X41" s="3">
-        <v>4000</v>
       </c>
       <c r="Y41" s="3">
         <v>4000</v>
       </c>
       <c r="Z41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AA41" s="3">
         <v>4300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3229,13 +3318,13 @@
         <v>1200</v>
       </c>
       <c r="S42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T42" s="3">
         <v>1000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>900</v>
-      </c>
-      <c r="U42" s="3">
-        <v>1000</v>
       </c>
       <c r="V42" s="3">
         <v>1000</v>
@@ -3261,8 +3350,11 @@
       <c r="AC42" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3306,11 +3398,11 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
@@ -3344,129 +3436,135 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5700</v>
+        <v>6500</v>
       </c>
       <c r="E44" s="3">
         <v>5700</v>
       </c>
       <c r="F44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G44" s="3">
         <v>5800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>4200</v>
       </c>
       <c r="R44" s="3">
         <v>4200</v>
       </c>
       <c r="S44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="T44" s="3">
         <v>4400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
-        <v>300</v>
-      </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>300</v>
-      </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
@@ -3487,7 +3585,7 @@
         <v>300</v>
       </c>
       <c r="V45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W45" s="3">
         <v>400</v>
@@ -3496,7 +3594,7 @@
         <v>400</v>
       </c>
       <c r="Y45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z45" s="3">
         <v>300</v>
@@ -3505,96 +3603,102 @@
         <v>300</v>
       </c>
       <c r="AB45" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC45" s="3">
         <v>400</v>
       </c>
-      <c r="AC45" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E46" s="3">
         <v>14700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>10300</v>
       </c>
       <c r="P46" s="3">
         <v>10300</v>
       </c>
       <c r="Q46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="R46" s="3">
         <v>10500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>9500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3602,23 +3706,23 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>700</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
@@ -3635,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>800</v>
@@ -3650,7 +3754,7 @@
         <v>800</v>
       </c>
       <c r="U47" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="V47" s="3">
         <v>300</v>
@@ -3674,93 +3778,99 @@
         <v>300</v>
       </c>
       <c r="AC47" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E48" s="3">
         <v>13200</v>
-      </c>
-      <c r="E48" s="3">
-        <v>12900</v>
       </c>
       <c r="F48" s="3">
         <v>12900</v>
       </c>
       <c r="G48" s="3">
+        <v>12900</v>
+      </c>
+      <c r="H48" s="3">
         <v>13800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>14600</v>
       </c>
       <c r="N48" s="3">
         <v>14600</v>
       </c>
       <c r="O48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="P48" s="3">
         <v>14900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13700</v>
-      </c>
-      <c r="R48" s="3">
-        <v>14000</v>
       </c>
       <c r="S48" s="3">
         <v>14000</v>
       </c>
       <c r="T48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="U48" s="3">
         <v>13000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>10500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>9800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>9600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>9500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>9600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3809,14 +3919,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3828,11 +3938,11 @@
         <v>0</v>
       </c>
       <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
         <v>100</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
-      </c>
       <c r="AA49" s="3">
         <v>0</v>
       </c>
@@ -3842,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4055,17 +4174,17 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>500</v>
@@ -4091,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E54" s="3">
         <v>28000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>29200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26700</v>
-      </c>
-      <c r="O54" s="3">
-        <v>25200</v>
       </c>
       <c r="P54" s="3">
         <v>25200</v>
       </c>
       <c r="Q54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="R54" s="3">
         <v>25100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>24400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>23600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>23700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>22100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>20300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>19700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>20000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>19300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>18900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4448,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1000</v>
       </c>
       <c r="O57" s="3">
         <v>1000</v>
       </c>
       <c r="P57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1400</v>
       </c>
       <c r="S57" s="3">
         <v>1400</v>
       </c>
       <c r="T57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>800</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>1200</v>
       </c>
       <c r="AA57" s="3">
         <v>1200</v>
       </c>
       <c r="AB57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC57" s="3">
         <v>600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4432,10 +4565,10 @@
         <v>500</v>
       </c>
       <c r="L58" s="3">
+        <v>500</v>
+      </c>
+      <c r="M58" s="3">
         <v>600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
@@ -4453,7 +4586,7 @@
         <v>500</v>
       </c>
       <c r="S58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T58" s="3">
         <v>400</v>
@@ -4462,280 +4595,292 @@
         <v>400</v>
       </c>
       <c r="V58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
       </c>
       <c r="X58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y58" s="3">
         <v>200</v>
       </c>
       <c r="Z58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AA58" s="3">
         <v>400</v>
       </c>
       <c r="AB58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AC58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1000</v>
       </c>
       <c r="V59" s="3">
         <v>1000</v>
       </c>
       <c r="W59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X59" s="3">
         <v>700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E61" s="3">
         <v>6000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4743,52 +4888,52 @@
         <v>1900</v>
       </c>
       <c r="E62" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F62" s="3">
         <v>1800</v>
       </c>
       <c r="G62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H62" s="3">
         <v>1700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2100</v>
       </c>
       <c r="I62" s="3">
         <v>2100</v>
       </c>
       <c r="J62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2000</v>
       </c>
       <c r="N62" s="3">
         <v>2000</v>
       </c>
       <c r="O62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P62" s="3">
         <v>1700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>1700</v>
       </c>
       <c r="R62" s="3">
         <v>1700</v>
       </c>
       <c r="S62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T62" s="3">
         <v>1500</v>
-      </c>
-      <c r="T62" s="3">
-        <v>600</v>
       </c>
       <c r="U62" s="3">
         <v>600</v>
@@ -4797,10 +4942,10 @@
         <v>600</v>
       </c>
       <c r="W62" s="3">
+        <v>600</v>
+      </c>
+      <c r="X62" s="3">
         <v>500</v>
-      </c>
-      <c r="X62" s="3">
-        <v>800</v>
       </c>
       <c r="Y62" s="3">
         <v>800</v>
@@ -4809,16 +4954,19 @@
         <v>800</v>
       </c>
       <c r="AA62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AB62" s="3">
         <v>700</v>
       </c>
       <c r="AC62" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E66" s="3">
         <v>11400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E72" s="3">
         <v>7700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4100</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>4200</v>
       </c>
       <c r="R72" s="3">
         <v>4200</v>
       </c>
       <c r="S72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="T72" s="3">
         <v>3800</v>
-      </c>
-      <c r="T72" s="3">
-        <v>3700</v>
       </c>
       <c r="U72" s="3">
         <v>3700</v>
       </c>
       <c r="V72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="W72" s="3">
         <v>3800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3200</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>3300</v>
       </c>
       <c r="Z72" s="3">
         <v>3300</v>
       </c>
       <c r="AA72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="AB72" s="3">
         <v>3000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,58 +6026,61 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E76" s="3">
         <v>16500</v>
-      </c>
-      <c r="E76" s="3">
-        <v>16700</v>
       </c>
       <c r="F76" s="3">
         <v>16700</v>
       </c>
       <c r="G76" s="3">
+        <v>16700</v>
+      </c>
+      <c r="H76" s="3">
         <v>15900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>15500</v>
       </c>
       <c r="I76" s="3">
         <v>15500</v>
       </c>
       <c r="J76" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K76" s="3">
         <v>15200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13000</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>13200</v>
       </c>
       <c r="R76" s="3">
         <v>13200</v>
       </c>
       <c r="S76" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="T76" s="3">
         <v>12800</v>
@@ -5904,31 +6089,34 @@
         <v>12800</v>
       </c>
       <c r="V76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="W76" s="3">
         <v>12900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12300</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>12400</v>
       </c>
       <c r="Z76" s="3">
         <v>12400</v>
       </c>
       <c r="AA76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="AB76" s="3">
         <v>12100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
-        <v>300</v>
-      </c>
       <c r="H81" s="3">
+        <v>300</v>
+      </c>
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
-        <v>300</v>
-      </c>
       <c r="J81" s="3">
+        <v>300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
-        <v>300</v>
-      </c>
       <c r="N81" s="3">
+        <v>300</v>
+      </c>
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB81" s="3">
         <v>400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
-      <c r="AC81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6269,14 +6467,14 @@
         <v>300</v>
       </c>
       <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3">
         <v>800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>500</v>
       </c>
-      <c r="W83" s="3">
-        <v>300</v>
-      </c>
       <c r="X83" s="3">
         <v>300</v>
       </c>
@@ -6284,19 +6482,22 @@
         <v>300</v>
       </c>
       <c r="Z83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA83" s="3">
         <v>200</v>
       </c>
-      <c r="AA83" s="3">
-        <v>300</v>
-      </c>
       <c r="AB83" s="3">
         <v>300</v>
       </c>
       <c r="AC83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>300</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
-      </c>
-      <c r="U89" s="3">
-        <v>800</v>
       </c>
       <c r="V89" s="3">
         <v>800</v>
       </c>
       <c r="W89" s="3">
+        <v>800</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
       </c>
       <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
       <c r="J91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-200</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
       <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-300</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
       </c>
       <c r="J94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
       </c>
       <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-400</v>
       </c>
       <c r="Z94" s="3">
         <v>-400</v>
       </c>
       <c r="AA94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB94" s="3">
         <v>100</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7528,25 +7773,25 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>-200</v>
       </c>
       <c r="J100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-100</v>
       </c>
       <c r="L100" s="3">
         <v>-100</v>
@@ -7558,37 +7803,37 @@
         <v>-100</v>
       </c>
       <c r="O100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>2800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>700</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>-100</v>
       </c>
       <c r="Z100" s="3">
         <v>-100</v>
@@ -7602,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>300</v>
-      </c>
       <c r="M102" s="3">
+        <v>300</v>
+      </c>
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
-        <v>300</v>
-      </c>
       <c r="U102" s="3">
+        <v>300</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BWTL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>BWTL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E8" s="3">
         <v>9500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>7600</v>
       </c>
       <c r="N8" s="3">
         <v>7600</v>
       </c>
       <c r="O8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="P8" s="3">
         <v>8900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>22900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>16000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>8300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6300</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>5900</v>
       </c>
       <c r="AD8" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5200</v>
-      </c>
-      <c r="M9" s="3">
-        <v>3800</v>
       </c>
       <c r="N9" s="3">
         <v>3800</v>
       </c>
       <c r="O9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P9" s="3">
         <v>4100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4000</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>3600</v>
       </c>
       <c r="Z9" s="3">
         <v>3600</v>
       </c>
       <c r="AA9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AB9" s="3">
         <v>4500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E10" s="3">
         <v>4100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4000</v>
       </c>
       <c r="F10" s="3">
         <v>4000</v>
       </c>
       <c r="G10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H10" s="3">
         <v>5600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4400</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3800</v>
       </c>
       <c r="N10" s="3">
         <v>3800</v>
       </c>
       <c r="O10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P10" s="3">
         <v>4800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>3100</v>
       </c>
       <c r="R10" s="3">
         <v>3100</v>
       </c>
       <c r="S10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T10" s="3">
         <v>4200</v>
-      </c>
-      <c r="T10" s="3">
-        <v>3100</v>
       </c>
       <c r="U10" s="3">
         <v>3100</v>
       </c>
       <c r="V10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="W10" s="3">
         <v>9700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6700</v>
-      </c>
-      <c r="X10" s="3">
-        <v>2900</v>
       </c>
       <c r="Y10" s="3">
         <v>2900</v>
       </c>
       <c r="Z10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AA10" s="3">
         <v>2800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1265,11 +1285,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1277,11 +1297,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1298,8 +1318,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1307,17 +1327,17 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1325,14 +1345,17 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="3">
         <v>100</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,14 +1414,14 @@
         <v>300</v>
       </c>
       <c r="V15" s="3">
+        <v>300</v>
+      </c>
+      <c r="W15" s="3">
         <v>800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>500</v>
       </c>
-      <c r="X15" s="3">
-        <v>300</v>
-      </c>
       <c r="Y15" s="3">
         <v>300</v>
       </c>
@@ -1406,19 +1429,22 @@
         <v>300</v>
       </c>
       <c r="AA15" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB15" s="3">
         <v>200</v>
       </c>
-      <c r="AB15" s="3">
-        <v>300</v>
-      </c>
       <c r="AC15" s="3">
         <v>300</v>
       </c>
       <c r="AD15" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9300</v>
+        <v>10400</v>
       </c>
       <c r="E17" s="3">
         <v>9300</v>
       </c>
       <c r="F17" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G17" s="3">
         <v>9000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>22500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>15500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>6000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>800</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
-        <v>300</v>
-      </c>
       <c r="J18" s="3">
+        <v>300</v>
+      </c>
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>600</v>
-      </c>
-      <c r="T18" s="3">
-        <v>100</v>
       </c>
       <c r="U18" s="3">
         <v>100</v>
       </c>
       <c r="V18" s="3">
+        <v>100</v>
+      </c>
+      <c r="W18" s="3">
         <v>400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>100</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
         <v>0</v>
       </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1665,11 +1699,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1677,17 +1711,17 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1695,11 +1729,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1707,123 +1741,129 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
-        <v>300</v>
-      </c>
       <c r="F21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>300</v>
-      </c>
       <c r="R21" s="3">
+        <v>300</v>
+      </c>
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1100</v>
       </c>
-      <c r="X21" s="3">
-        <v>300</v>
-      </c>
       <c r="Y21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z21" s="3">
         <v>500</v>
       </c>
-      <c r="Z21" s="3">
-        <v>300</v>
-      </c>
       <c r="AA21" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB21" s="3">
         <v>800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>100</v>
       </c>
-      <c r="AD21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1882,10 +1922,10 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
@@ -1897,7 +1937,7 @@
         <v>100</v>
       </c>
       <c r="AA22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
@@ -1908,99 +1948,105 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>300</v>
+      </c>
+      <c r="X23" s="3">
         <v>500</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>200</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>500</v>
       </c>
-      <c r="AB23" s="3">
-        <v>300</v>
-      </c>
       <c r="AC23" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
-      <c r="AD23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -2009,79 +2055,82 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
         <v>100</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-100</v>
       </c>
-      <c r="AD24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
-        <v>300</v>
-      </c>
       <c r="I26" s="3">
+        <v>300</v>
+      </c>
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
-        <v>300</v>
-      </c>
       <c r="K26" s="3">
+        <v>300</v>
+      </c>
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>300</v>
-      </c>
       <c r="O26" s="3">
+        <v>300</v>
+      </c>
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>200</v>
       </c>
-      <c r="W26" s="3">
-        <v>300</v>
-      </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC26" s="3">
         <v>200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
-      <c r="AD26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
-        <v>300</v>
-      </c>
       <c r="I27" s="3">
+        <v>300</v>
+      </c>
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
-        <v>300</v>
-      </c>
       <c r="K27" s="3">
+        <v>300</v>
+      </c>
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>300</v>
-      </c>
       <c r="O27" s="3">
+        <v>300</v>
+      </c>
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>200</v>
       </c>
-      <c r="W27" s="3">
-        <v>300</v>
-      </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC27" s="3">
         <v>200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
-      <c r="AD27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2462,8 +2523,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2480,38 +2541,41 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-200</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X29" s="3">
         <v>200</v>
       </c>
       <c r="Y29" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-200</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
       <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>200</v>
-      </c>
-      <c r="AC29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2697,11 +2767,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2709,17 +2779,17 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2727,11 +2797,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2739,123 +2809,129 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-300</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
-        <v>300</v>
-      </c>
       <c r="I33" s="3">
+        <v>300</v>
+      </c>
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
-        <v>300</v>
-      </c>
       <c r="K33" s="3">
+        <v>300</v>
+      </c>
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>300</v>
-      </c>
       <c r="O33" s="3">
+        <v>300</v>
+      </c>
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC33" s="3">
         <v>400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
-      <c r="AD33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
-        <v>300</v>
-      </c>
       <c r="I35" s="3">
+        <v>300</v>
+      </c>
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
-        <v>300</v>
-      </c>
       <c r="K35" s="3">
+        <v>300</v>
+      </c>
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>300</v>
-      </c>
       <c r="O35" s="3">
+        <v>300</v>
+      </c>
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC35" s="3">
         <v>400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
-      <c r="AD35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E41" s="3">
         <v>6300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>7300</v>
       </c>
       <c r="F41" s="3">
         <v>7300</v>
       </c>
       <c r="G41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H41" s="3">
         <v>7800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3600</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>4000</v>
       </c>
       <c r="Z41" s="3">
         <v>4000</v>
       </c>
       <c r="AA41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AB41" s="3">
         <v>4300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3321,13 +3411,13 @@
         <v>1200</v>
       </c>
       <c r="T42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U42" s="3">
         <v>1000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>900</v>
-      </c>
-      <c r="V42" s="3">
-        <v>1000</v>
       </c>
       <c r="W42" s="3">
         <v>1000</v>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3401,11 +3494,11 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
@@ -3439,135 +3532,141 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E44" s="3">
         <v>6500</v>
-      </c>
-      <c r="E44" s="3">
-        <v>5700</v>
       </c>
       <c r="F44" s="3">
         <v>5700</v>
       </c>
       <c r="G44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H44" s="3">
         <v>5800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4000</v>
-      </c>
-      <c r="R44" s="3">
-        <v>4200</v>
       </c>
       <c r="S44" s="3">
         <v>4200</v>
       </c>
       <c r="T44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U44" s="3">
         <v>4400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
-        <v>300</v>
-      </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>300</v>
-      </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
@@ -3588,7 +3687,7 @@
         <v>300</v>
       </c>
       <c r="W45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X45" s="3">
         <v>400</v>
@@ -3597,7 +3696,7 @@
         <v>400</v>
       </c>
       <c r="Z45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AA45" s="3">
         <v>300</v>
@@ -3606,126 +3705,132 @@
         <v>300</v>
       </c>
       <c r="AC45" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD45" s="3">
         <v>400</v>
       </c>
-      <c r="AD45" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E46" s="3">
         <v>14400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12000</v>
-      </c>
-      <c r="P46" s="3">
-        <v>10300</v>
       </c>
       <c r="Q46" s="3">
         <v>10300</v>
       </c>
       <c r="R46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="S46" s="3">
         <v>10500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>9100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>9500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>700</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
@@ -3742,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>800</v>
@@ -3757,7 +3862,7 @@
         <v>800</v>
       </c>
       <c r="V47" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="W47" s="3">
         <v>300</v>
@@ -3781,96 +3886,102 @@
         <v>300</v>
       </c>
       <c r="AD47" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>12900</v>
       </c>
       <c r="G48" s="3">
         <v>12900</v>
       </c>
       <c r="H48" s="3">
+        <v>12900</v>
+      </c>
+      <c r="I48" s="3">
         <v>13800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>14600</v>
       </c>
       <c r="O48" s="3">
         <v>14600</v>
       </c>
       <c r="P48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>14900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13700</v>
-      </c>
-      <c r="S48" s="3">
-        <v>14000</v>
       </c>
       <c r="T48" s="3">
         <v>14000</v>
       </c>
       <c r="U48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="V48" s="3">
         <v>13000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>10500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>9800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>9600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>9500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>9600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3922,14 +4033,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3941,11 +4052,11 @@
         <v>0</v>
       </c>
       <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
         <v>100</v>
       </c>
-      <c r="AA49" s="3">
-        <v>0</v>
-      </c>
       <c r="AB49" s="3">
         <v>0</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4177,17 +4297,17 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W52" s="3">
         <v>500</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E54" s="3">
         <v>27800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>29600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26700</v>
-      </c>
-      <c r="P54" s="3">
-        <v>25200</v>
       </c>
       <c r="Q54" s="3">
         <v>25200</v>
       </c>
       <c r="R54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="S54" s="3">
         <v>25100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>24400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>23300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>23600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>23700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>22100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>20300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>19700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>20000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>19300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>18900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,94 +4579,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1000</v>
       </c>
       <c r="P57" s="3">
         <v>1000</v>
       </c>
       <c r="Q57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1400</v>
       </c>
       <c r="T57" s="3">
         <v>1400</v>
       </c>
       <c r="U57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>800</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>1200</v>
       </c>
       <c r="AB57" s="3">
         <v>1200</v>
       </c>
       <c r="AC57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AD57" s="3">
         <v>600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4568,10 +4702,10 @@
         <v>500</v>
       </c>
       <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3">
         <v>600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>500</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
@@ -4589,7 +4723,7 @@
         <v>500</v>
       </c>
       <c r="T58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U58" s="3">
         <v>400</v>
@@ -4598,345 +4732,357 @@
         <v>400</v>
       </c>
       <c r="W58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X58" s="3">
         <v>300</v>
       </c>
       <c r="Y58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z58" s="3">
         <v>200</v>
       </c>
       <c r="AA58" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AB58" s="3">
         <v>400</v>
       </c>
       <c r="AC58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AD58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1000</v>
       </c>
       <c r="W59" s="3">
         <v>1000</v>
       </c>
       <c r="X59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y59" s="3">
         <v>700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E61" s="3">
         <v>5900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E62" s="3">
         <v>1900</v>
       </c>
       <c r="F62" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G62" s="3">
         <v>1800</v>
       </c>
       <c r="H62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I62" s="3">
         <v>1700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2100</v>
       </c>
       <c r="J62" s="3">
         <v>2100</v>
       </c>
       <c r="K62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L62" s="3">
         <v>2200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>2000</v>
       </c>
       <c r="O62" s="3">
         <v>2000</v>
       </c>
       <c r="P62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1900</v>
-      </c>
-      <c r="R62" s="3">
-        <v>1700</v>
       </c>
       <c r="S62" s="3">
         <v>1700</v>
       </c>
       <c r="T62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U62" s="3">
         <v>1500</v>
-      </c>
-      <c r="U62" s="3">
-        <v>600</v>
       </c>
       <c r="V62" s="3">
         <v>600</v>
@@ -4945,10 +5091,10 @@
         <v>600</v>
       </c>
       <c r="X62" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y62" s="3">
         <v>500</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>800</v>
       </c>
       <c r="Z62" s="3">
         <v>800</v>
@@ -4957,16 +5103,19 @@
         <v>800</v>
       </c>
       <c r="AB62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AC62" s="3">
         <v>700</v>
       </c>
       <c r="AD62" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE62" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>7000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E72" s="3">
         <v>7800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4100</v>
-      </c>
-      <c r="R72" s="3">
-        <v>4200</v>
       </c>
       <c r="S72" s="3">
         <v>4200</v>
       </c>
       <c r="T72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U72" s="3">
         <v>3800</v>
-      </c>
-      <c r="U72" s="3">
-        <v>3700</v>
       </c>
       <c r="V72" s="3">
         <v>3700</v>
       </c>
       <c r="W72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="X72" s="3">
         <v>3800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3200</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>3300</v>
       </c>
       <c r="AA72" s="3">
         <v>3300</v>
       </c>
       <c r="AB72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="AC72" s="3">
         <v>3000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,61 +6212,64 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E76" s="3">
         <v>16600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>16700</v>
       </c>
       <c r="G76" s="3">
         <v>16700</v>
       </c>
       <c r="H76" s="3">
+        <v>16700</v>
+      </c>
+      <c r="I76" s="3">
         <v>15900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>15500</v>
       </c>
       <c r="J76" s="3">
         <v>15500</v>
       </c>
       <c r="K76" s="3">
+        <v>15500</v>
+      </c>
+      <c r="L76" s="3">
         <v>15200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13000</v>
-      </c>
-      <c r="R76" s="3">
-        <v>13200</v>
       </c>
       <c r="S76" s="3">
         <v>13200</v>
       </c>
       <c r="T76" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="U76" s="3">
         <v>12800</v>
@@ -6092,31 +6278,34 @@
         <v>12800</v>
       </c>
       <c r="W76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="X76" s="3">
         <v>12900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12300</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>12400</v>
       </c>
       <c r="AA76" s="3">
         <v>12400</v>
       </c>
       <c r="AB76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="AC76" s="3">
         <v>12100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>11900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
-        <v>300</v>
-      </c>
       <c r="I81" s="3">
+        <v>300</v>
+      </c>
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
-        <v>300</v>
-      </c>
       <c r="K81" s="3">
+        <v>300</v>
+      </c>
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>300</v>
-      </c>
       <c r="O81" s="3">
+        <v>300</v>
+      </c>
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AB81" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC81" s="3">
         <v>400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
-      <c r="AD81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6470,14 +6669,14 @@
         <v>300</v>
       </c>
       <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3">
         <v>800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>500</v>
       </c>
-      <c r="X83" s="3">
-        <v>300</v>
-      </c>
       <c r="Y83" s="3">
         <v>300</v>
       </c>
@@ -6485,19 +6684,22 @@
         <v>300</v>
       </c>
       <c r="AA83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB83" s="3">
         <v>200</v>
       </c>
-      <c r="AB83" s="3">
-        <v>300</v>
-      </c>
       <c r="AC83" s="3">
         <v>300</v>
       </c>
       <c r="AD83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
-        <v>300</v>
-      </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>400</v>
-      </c>
-      <c r="V89" s="3">
-        <v>800</v>
       </c>
       <c r="W89" s="3">
         <v>800</v>
       </c>
       <c r="X89" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
-      <c r="AD89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
       </c>
       <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
       </c>
       <c r="K91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-200</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
       <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-300</v>
       </c>
       <c r="J94" s="3">
         <v>-300</v>
       </c>
       <c r="K94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
       </c>
       <c r="M94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-400</v>
       </c>
       <c r="AA94" s="3">
         <v>-400</v>
       </c>
       <c r="AB94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC94" s="3">
         <v>100</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
       <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7776,25 +8022,25 @@
         <v>-100</v>
       </c>
       <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J100" s="3">
         <v>-200</v>
       </c>
       <c r="K100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
@@ -7806,37 +8052,37 @@
         <v>-100</v>
       </c>
       <c r="P100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>2800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>700</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>-100</v>
       </c>
       <c r="AA100" s="3">
         <v>-100</v>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>300</v>
-      </c>
       <c r="N102" s="3">
+        <v>300</v>
+      </c>
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
-        <v>300</v>
-      </c>
       <c r="V102" s="3">
+        <v>300</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-200</v>
       </c>
     </row>
